--- a/Razer.xlsx
+++ b/Razer.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="20730"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Skank\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\felip\OneDrive\Documentos\INSPER\Ciencia dos dados\projeto2\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{63CA3F15-8820-499D-9721-85ABC8FDFD15}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9075" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9072" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Treinamento" sheetId="1" r:id="rId1"/>
@@ -20,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="504" uniqueCount="257">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="504" uniqueCount="256">
   <si>
     <t>Treinamento</t>
   </si>
@@ -874,6 +875,9 @@
 #globaldata... https://t.co/wldmlpq9ny</t>
   </si>
   <si>
+    <t>@chipart_info precisa nem perguntar,já tô enchendo o saco da amd,asus,nvidia,razer, toshiba, hiperx mastercooler e tudo mais</t>
+  </si>
+  <si>
     <t>o razer phone 2 está a chegar, confirma a razer #androidgeek #android #techblog https://t.co/g4a1wfypnk</t>
   </si>
   <si>
@@ -881,18 +885,12 @@
   </si>
   <si>
     <t>relevancia</t>
-  </si>
-  <si>
-    <t>Relevancia</t>
-  </si>
-  <si>
-    <t xml:space="preserve">                          </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -950,9 +948,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -973,7 +969,7 @@
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema do Office">
   <a:themeElements>
-    <a:clrScheme name="Escritório">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -1011,7 +1007,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Escritório">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -1046,6 +1042,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -1081,9 +1094,26 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Escritório">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1256,25 +1286,27 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B301"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:B302"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="A240" zoomScale="102" zoomScaleNormal="102" workbookViewId="0">
+      <selection activeCell="A240" sqref="A240"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="255.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="186.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>34</v>
       </c>
@@ -1282,7 +1314,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>93</v>
       </c>
@@ -1290,7 +1322,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>86</v>
       </c>
@@ -1298,7 +1330,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>62</v>
       </c>
@@ -1306,7 +1338,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>80</v>
       </c>
@@ -1314,7 +1346,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>72</v>
       </c>
@@ -1322,7 +1354,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>114</v>
       </c>
@@ -1330,7 +1362,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>128</v>
       </c>
@@ -1338,7 +1370,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>138</v>
       </c>
@@ -1346,7 +1378,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>122</v>
       </c>
@@ -1354,7 +1386,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>78</v>
       </c>
@@ -1362,7 +1394,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>5</v>
       </c>
@@ -1370,7 +1402,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>44</v>
       </c>
@@ -1378,7 +1410,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>102</v>
       </c>
@@ -1386,7 +1418,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>3</v>
       </c>
@@ -1394,7 +1426,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>25</v>
       </c>
@@ -1402,7 +1434,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>118</v>
       </c>
@@ -1410,7 +1442,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>54</v>
       </c>
@@ -1418,7 +1450,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>48</v>
       </c>
@@ -1426,7 +1458,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>150</v>
       </c>
@@ -1434,7 +1466,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>103</v>
       </c>
@@ -1442,7 +1474,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>120</v>
       </c>
@@ -1450,7 +1482,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>84</v>
       </c>
@@ -1458,7 +1490,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>77</v>
       </c>
@@ -1466,7 +1498,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>40</v>
       </c>
@@ -1474,7 +1506,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>95</v>
       </c>
@@ -1482,7 +1514,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>22</v>
       </c>
@@ -1490,7 +1522,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>104</v>
       </c>
@@ -1498,7 +1530,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>137</v>
       </c>
@@ -1506,7 +1538,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>131</v>
       </c>
@@ -1514,7 +1546,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>58</v>
       </c>
@@ -1522,7 +1554,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>71</v>
       </c>
@@ -1530,7 +1562,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>142</v>
       </c>
@@ -1538,7 +1570,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>140</v>
       </c>
@@ -1546,7 +1578,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>47</v>
       </c>
@@ -1554,7 +1586,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>91</v>
       </c>
@@ -1562,7 +1594,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>154</v>
       </c>
@@ -1570,7 +1602,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>45</v>
       </c>
@@ -1578,7 +1610,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>148</v>
       </c>
@@ -1586,7 +1618,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>127</v>
       </c>
@@ -1594,7 +1626,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>130</v>
       </c>
@@ -1602,7 +1634,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>96</v>
       </c>
@@ -1610,7 +1642,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>7</v>
       </c>
@@ -1618,7 +1650,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>61</v>
       </c>
@@ -1626,7 +1658,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>115</v>
       </c>
@@ -1634,7 +1666,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>126</v>
       </c>
@@ -1642,7 +1674,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>119</v>
       </c>
@@ -1650,7 +1682,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>144</v>
       </c>
@@ -1658,7 +1690,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>101</v>
       </c>
@@ -1666,7 +1698,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>21</v>
       </c>
@@ -1674,7 +1706,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>42</v>
       </c>
@@ -1682,7 +1714,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>20</v>
       </c>
@@ -1690,7 +1722,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>99</v>
       </c>
@@ -1698,7 +1730,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>147</v>
       </c>
@@ -1706,7 +1738,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>60</v>
       </c>
@@ -1714,7 +1746,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>151</v>
       </c>
@@ -1722,7 +1754,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>105</v>
       </c>
@@ -1730,7 +1762,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>35</v>
       </c>
@@ -1738,7 +1770,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>82</v>
       </c>
@@ -1746,7 +1778,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
         <v>100</v>
       </c>
@@ -1754,7 +1786,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
         <v>109</v>
       </c>
@@ -1762,7 +1794,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
         <v>98</v>
       </c>
@@ -1770,7 +1802,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
         <v>52</v>
       </c>
@@ -1778,7 +1810,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
         <v>155</v>
       </c>
@@ -1786,7 +1818,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
         <v>53</v>
       </c>
@@ -1794,7 +1826,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
         <v>153</v>
       </c>
@@ -1802,7 +1834,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
         <v>134</v>
       </c>
@@ -1810,7 +1842,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
         <v>23</v>
       </c>
@@ -1818,7 +1850,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
         <v>129</v>
       </c>
@@ -1826,7 +1858,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
         <v>30</v>
       </c>
@@ -1834,7 +1866,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
         <v>83</v>
       </c>
@@ -1842,7 +1874,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
         <v>110</v>
       </c>
@@ -1850,7 +1882,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
         <v>146</v>
       </c>
@@ -1858,7 +1890,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
         <v>97</v>
       </c>
@@ -1866,7 +1898,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
         <v>132</v>
       </c>
@@ -1874,7 +1906,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
         <v>135</v>
       </c>
@@ -1882,7 +1914,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
         <v>113</v>
       </c>
@@ -1890,7 +1922,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
         <v>63</v>
       </c>
@@ -1898,7 +1930,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
         <v>64</v>
       </c>
@@ -1906,7 +1938,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
         <v>117</v>
       </c>
@@ -1914,7 +1946,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
         <v>90</v>
       </c>
@@ -1922,7 +1954,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
         <v>123</v>
       </c>
@@ -1930,7 +1962,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
         <v>139</v>
       </c>
@@ -1938,7 +1970,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
         <v>41</v>
       </c>
@@ -1946,7 +1978,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
         <v>43</v>
       </c>
@@ -1954,7 +1986,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
         <v>85</v>
       </c>
@@ -1962,7 +1994,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
         <v>81</v>
       </c>
@@ -1970,7 +2002,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="89" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
         <v>159</v>
       </c>
@@ -1978,7 +2010,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="90" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
         <v>108</v>
       </c>
@@ -1986,7 +2018,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="91" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
         <v>65</v>
       </c>
@@ -1994,7 +2026,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="92" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
         <v>55</v>
       </c>
@@ -2002,7 +2034,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="93" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
         <v>29</v>
       </c>
@@ -2010,7 +2042,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="94" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
         <v>59</v>
       </c>
@@ -2018,7 +2050,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="95" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
         <v>26</v>
       </c>
@@ -2026,7 +2058,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="96" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
         <v>136</v>
       </c>
@@ -2034,7 +2066,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="97" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
         <v>66</v>
       </c>
@@ -2042,7 +2074,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="98" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
         <v>92</v>
       </c>
@@ -2050,7 +2082,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="99" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
         <v>39</v>
       </c>
@@ -2058,7 +2090,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="100" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
         <v>14</v>
       </c>
@@ -2066,7 +2098,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="101" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
         <v>94</v>
       </c>
@@ -2074,7 +2106,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="102" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A102" t="s">
         <v>49</v>
       </c>
@@ -2082,7 +2114,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="103" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A103" t="s">
         <v>158</v>
       </c>
@@ -2090,7 +2122,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="104" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A104" t="s">
         <v>112</v>
       </c>
@@ -2098,7 +2130,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="105" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A105" t="s">
         <v>56</v>
       </c>
@@ -2106,7 +2138,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="106" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A106" t="s">
         <v>37</v>
       </c>
@@ -2114,7 +2146,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="107" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A107" t="s">
         <v>27</v>
       </c>
@@ -2122,7 +2154,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="108" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A108" t="s">
         <v>116</v>
       </c>
@@ -2130,7 +2162,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="109" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A109" t="s">
         <v>125</v>
       </c>
@@ -2138,7 +2170,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="110" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A110" t="s">
         <v>24</v>
       </c>
@@ -2146,7 +2178,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="111" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A111" t="s">
         <v>149</v>
       </c>
@@ -2154,7 +2186,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="112" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A112" t="s">
         <v>70</v>
       </c>
@@ -2162,7 +2194,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="113" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A113" t="s">
         <v>73</v>
       </c>
@@ -2170,7 +2202,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="114" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A114" t="s">
         <v>107</v>
       </c>
@@ -2178,7 +2210,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="115" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A115" t="s">
         <v>75</v>
       </c>
@@ -2186,7 +2218,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="116" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A116" t="s">
         <v>13</v>
       </c>
@@ -2194,7 +2226,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="117" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A117" t="s">
         <v>89</v>
       </c>
@@ -2202,7 +2234,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="118" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A118" t="s">
         <v>46</v>
       </c>
@@ -2210,7 +2242,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="119" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A119" t="s">
         <v>143</v>
       </c>
@@ -2218,7 +2250,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="120" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A120" t="s">
         <v>16</v>
       </c>
@@ -2226,7 +2258,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="121" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A121" t="s">
         <v>133</v>
       </c>
@@ -2234,7 +2266,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="122" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A122" t="s">
         <v>33</v>
       </c>
@@ -2242,7 +2274,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="123" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A123" t="s">
         <v>106</v>
       </c>
@@ -2250,7 +2282,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="124" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A124" t="s">
         <v>57</v>
       </c>
@@ -2258,7 +2290,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="125" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A125" t="s">
         <v>32</v>
       </c>
@@ -2266,7 +2298,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="126" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A126" t="s">
         <v>111</v>
       </c>
@@ -2274,7 +2306,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="127" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A127" t="s">
         <v>111</v>
       </c>
@@ -2282,7 +2314,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="128" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A128" t="s">
         <v>152</v>
       </c>
@@ -2290,7 +2322,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="129" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A129" t="s">
         <v>87</v>
       </c>
@@ -2298,7 +2330,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="130" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A130" t="s">
         <v>124</v>
       </c>
@@ -2306,7 +2338,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="131" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A131" t="s">
         <v>4</v>
       </c>
@@ -2314,7 +2346,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="132" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A132" t="s">
         <v>2</v>
       </c>
@@ -2322,7 +2354,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="133" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A133" t="s">
         <v>2</v>
       </c>
@@ -2330,7 +2362,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="134" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A134" t="s">
         <v>2</v>
       </c>
@@ -2338,7 +2370,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="135" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A135" t="s">
         <v>2</v>
       </c>
@@ -2346,7 +2378,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="136" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A136" t="s">
         <v>2</v>
       </c>
@@ -2354,7 +2386,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="137" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A137" t="s">
         <v>8</v>
       </c>
@@ -2362,7 +2394,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="138" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A138" t="s">
         <v>8</v>
       </c>
@@ -2370,7 +2402,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="139" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A139" t="s">
         <v>8</v>
       </c>
@@ -2378,7 +2410,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="140" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A140" t="s">
         <v>8</v>
       </c>
@@ -2386,7 +2418,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="141" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A141" t="s">
         <v>8</v>
       </c>
@@ -2394,7 +2426,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="142" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A142" t="s">
         <v>8</v>
       </c>
@@ -2402,7 +2434,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="143" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A143" t="s">
         <v>8</v>
       </c>
@@ -2410,7 +2442,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="144" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A144" t="s">
         <v>8</v>
       </c>
@@ -2418,7 +2450,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="145" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A145" t="s">
         <v>9</v>
       </c>
@@ -2426,7 +2458,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="146" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A146" t="s">
         <v>9</v>
       </c>
@@ -2434,7 +2466,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="147" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A147" t="s">
         <v>9</v>
       </c>
@@ -2442,7 +2474,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="148" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A148" t="s">
         <v>9</v>
       </c>
@@ -2450,7 +2482,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="149" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A149" t="s">
         <v>9</v>
       </c>
@@ -2458,7 +2490,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="150" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A150" t="s">
         <v>9</v>
       </c>
@@ -2466,7 +2498,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="151" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A151" t="s">
         <v>9</v>
       </c>
@@ -2474,7 +2506,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="152" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A152" t="s">
         <v>9</v>
       </c>
@@ -2482,7 +2514,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="153" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A153" t="s">
         <v>9</v>
       </c>
@@ -2490,7 +2522,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="154" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A154" t="s">
         <v>9</v>
       </c>
@@ -2498,7 +2530,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="155" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A155" t="s">
         <v>9</v>
       </c>
@@ -2506,7 +2538,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="156" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A156" t="s">
         <v>9</v>
       </c>
@@ -2514,7 +2546,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="157" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A157" t="s">
         <v>9</v>
       </c>
@@ -2522,7 +2554,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="158" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A158" t="s">
         <v>9</v>
       </c>
@@ -2530,7 +2562,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="159" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A159" t="s">
         <v>156</v>
       </c>
@@ -2538,7 +2570,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="160" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A160" t="s">
         <v>36</v>
       </c>
@@ -2546,7 +2578,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="161" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A161" t="s">
         <v>19</v>
       </c>
@@ -2554,7 +2586,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="162" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A162" t="s">
         <v>28</v>
       </c>
@@ -2562,7 +2594,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="163" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A163" t="s">
         <v>38</v>
       </c>
@@ -2570,7 +2602,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="164" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A164" t="s">
         <v>18</v>
       </c>
@@ -2578,7 +2610,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="165" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A165" t="s">
         <v>18</v>
       </c>
@@ -2586,7 +2618,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="166" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A166" t="s">
         <v>18</v>
       </c>
@@ -2594,7 +2626,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="167" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A167" t="s">
         <v>18</v>
       </c>
@@ -2602,7 +2634,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="168" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A168" t="s">
         <v>18</v>
       </c>
@@ -2610,7 +2642,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="169" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A169" t="s">
         <v>18</v>
       </c>
@@ -2618,7 +2650,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="170" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A170" t="s">
         <v>18</v>
       </c>
@@ -2626,7 +2658,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="171" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A171" t="s">
         <v>18</v>
       </c>
@@ -2634,7 +2666,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="172" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A172" t="s">
         <v>18</v>
       </c>
@@ -2642,7 +2674,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="173" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A173" t="s">
         <v>18</v>
       </c>
@@ -2650,7 +2682,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="174" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A174" t="s">
         <v>18</v>
       </c>
@@ -2658,7 +2690,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="175" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A175" t="s">
         <v>18</v>
       </c>
@@ -2666,7 +2698,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="176" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A176" t="s">
         <v>18</v>
       </c>
@@ -2674,7 +2706,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="177" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A177" t="s">
         <v>18</v>
       </c>
@@ -2682,7 +2714,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="178" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A178" t="s">
         <v>18</v>
       </c>
@@ -2690,7 +2722,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="179" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A179" t="s">
         <v>18</v>
       </c>
@@ -2698,7 +2730,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="180" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A180" t="s">
         <v>18</v>
       </c>
@@ -2706,7 +2738,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="181" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A181" t="s">
         <v>18</v>
       </c>
@@ -2714,7 +2746,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="182" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A182" t="s">
         <v>18</v>
       </c>
@@ -2722,7 +2754,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="183" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A183" t="s">
         <v>18</v>
       </c>
@@ -2730,7 +2762,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="184" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A184" t="s">
         <v>18</v>
       </c>
@@ -2738,7 +2770,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="185" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A185" t="s">
         <v>18</v>
       </c>
@@ -2746,7 +2778,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="186" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A186" t="s">
         <v>18</v>
       </c>
@@ -2754,7 +2786,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="187" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A187" t="s">
         <v>18</v>
       </c>
@@ -2762,7 +2794,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="188" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A188" t="s">
         <v>18</v>
       </c>
@@ -2770,7 +2802,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="189" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A189" t="s">
         <v>18</v>
       </c>
@@ -2778,7 +2810,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="190" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A190" t="s">
         <v>11</v>
       </c>
@@ -2786,7 +2818,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="191" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A191" t="s">
         <v>11</v>
       </c>
@@ -2794,7 +2826,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="192" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A192" t="s">
         <v>11</v>
       </c>
@@ -2802,7 +2834,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="193" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A193" t="s">
         <v>11</v>
       </c>
@@ -2810,7 +2842,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="194" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A194" t="s">
         <v>11</v>
       </c>
@@ -2818,7 +2850,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="195" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A195" t="s">
         <v>11</v>
       </c>
@@ -2826,7 +2858,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="196" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A196" t="s">
         <v>11</v>
       </c>
@@ -2834,7 +2866,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="197" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A197" t="s">
         <v>11</v>
       </c>
@@ -2842,7 +2874,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="198" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A198" t="s">
         <v>11</v>
       </c>
@@ -2850,7 +2882,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="199" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A199" t="s">
         <v>11</v>
       </c>
@@ -2858,7 +2890,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="200" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A200" t="s">
         <v>11</v>
       </c>
@@ -2866,7 +2898,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="201" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A201" t="s">
         <v>11</v>
       </c>
@@ -2874,7 +2906,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="202" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A202" t="s">
         <v>11</v>
       </c>
@@ -2882,15 +2914,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="203" spans="1:2" ht="105" x14ac:dyDescent="0.25">
-      <c r="A203" s="2" t="s">
+    <row r="203" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A203" t="s">
         <v>11</v>
       </c>
       <c r="B203">
         <v>0</v>
       </c>
     </row>
-    <row r="204" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A204" t="s">
         <v>11</v>
       </c>
@@ -2898,7 +2930,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="205" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A205" t="s">
         <v>11</v>
       </c>
@@ -2906,7 +2938,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="206" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A206" t="s">
         <v>11</v>
       </c>
@@ -2914,7 +2946,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="207" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A207" t="s">
         <v>12</v>
       </c>
@@ -2922,7 +2954,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="208" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A208" t="s">
         <v>12</v>
       </c>
@@ -2930,7 +2962,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="209" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A209" t="s">
         <v>12</v>
       </c>
@@ -2938,7 +2970,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="210" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A210" t="s">
         <v>1</v>
       </c>
@@ -2946,7 +2978,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="211" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A211" t="s">
         <v>1</v>
       </c>
@@ -2954,7 +2986,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="212" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A212" t="s">
         <v>6</v>
       </c>
@@ -2962,7 +2994,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="213" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A213" t="s">
         <v>6</v>
       </c>
@@ -2970,7 +3002,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="214" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A214" t="s">
         <v>6</v>
       </c>
@@ -2978,7 +3010,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="215" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A215" t="s">
         <v>6</v>
       </c>
@@ -2986,7 +3018,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="216" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A216" t="s">
         <v>6</v>
       </c>
@@ -2994,7 +3026,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="217" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A217" t="s">
         <v>6</v>
       </c>
@@ -3002,7 +3034,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="218" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A218" t="s">
         <v>6</v>
       </c>
@@ -3010,7 +3042,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="219" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A219" t="s">
         <v>6</v>
       </c>
@@ -3018,7 +3050,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="220" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A220" t="s">
         <v>6</v>
       </c>
@@ -3026,7 +3058,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="221" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A221" t="s">
         <v>6</v>
       </c>
@@ -3034,7 +3066,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="222" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A222" t="s">
         <v>6</v>
       </c>
@@ -3042,7 +3074,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="223" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A223" t="s">
         <v>6</v>
       </c>
@@ -3050,7 +3082,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="224" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A224" t="s">
         <v>6</v>
       </c>
@@ -3058,7 +3090,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="225" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A225" t="s">
         <v>6</v>
       </c>
@@ -3066,7 +3098,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="226" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A226" t="s">
         <v>6</v>
       </c>
@@ -3074,7 +3106,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="227" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A227" t="s">
         <v>6</v>
       </c>
@@ -3082,7 +3114,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="228" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A228" t="s">
         <v>6</v>
       </c>
@@ -3090,7 +3122,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="229" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A229" t="s">
         <v>6</v>
       </c>
@@ -3098,7 +3130,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="230" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A230" t="s">
         <v>6</v>
       </c>
@@ -3106,7 +3138,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="231" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A231" t="s">
         <v>6</v>
       </c>
@@ -3114,7 +3146,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="232" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A232" t="s">
         <v>6</v>
       </c>
@@ -3122,7 +3154,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="233" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A233" t="s">
         <v>6</v>
       </c>
@@ -3130,7 +3162,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="234" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A234" t="s">
         <v>6</v>
       </c>
@@ -3138,7 +3170,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="235" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A235" t="s">
         <v>6</v>
       </c>
@@ -3146,7 +3178,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="236" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A236" t="s">
         <v>6</v>
       </c>
@@ -3154,7 +3186,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="237" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A237" t="s">
         <v>6</v>
       </c>
@@ -3162,7 +3194,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="238" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A238" t="s">
         <v>6</v>
       </c>
@@ -3170,7 +3202,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="239" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A239" t="s">
         <v>6</v>
       </c>
@@ -3178,7 +3210,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="240" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A240" t="s">
         <v>6</v>
       </c>
@@ -3186,7 +3218,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="241" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A241" t="s">
         <v>6</v>
       </c>
@@ -3194,7 +3226,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="242" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A242" t="s">
         <v>6</v>
       </c>
@@ -3202,7 +3234,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="243" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A243" t="s">
         <v>6</v>
       </c>
@@ -3210,7 +3242,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="244" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A244" t="s">
         <v>6</v>
       </c>
@@ -3218,7 +3250,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="245" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A245" t="s">
         <v>6</v>
       </c>
@@ -3226,7 +3258,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="246" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A246" t="s">
         <v>6</v>
       </c>
@@ -3234,7 +3266,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="247" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A247" t="s">
         <v>6</v>
       </c>
@@ -3242,7 +3274,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="248" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A248" t="s">
         <v>6</v>
       </c>
@@ -3250,7 +3282,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="249" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A249" t="s">
         <v>6</v>
       </c>
@@ -3258,7 +3290,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="250" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A250" t="s">
         <v>6</v>
       </c>
@@ -3266,7 +3298,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="251" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A251" t="s">
         <v>6</v>
       </c>
@@ -3274,7 +3306,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="252" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A252" t="s">
         <v>6</v>
       </c>
@@ -3282,7 +3314,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="253" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A253" t="s">
         <v>6</v>
       </c>
@@ -3290,7 +3322,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="254" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A254" t="s">
         <v>6</v>
       </c>
@@ -3298,7 +3330,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="255" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A255" t="s">
         <v>6</v>
       </c>
@@ -3306,7 +3338,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="256" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A256" t="s">
         <v>6</v>
       </c>
@@ -3314,7 +3346,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="257" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A257" t="s">
         <v>6</v>
       </c>
@@ -3322,7 +3354,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="258" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A258" t="s">
         <v>6</v>
       </c>
@@ -3330,7 +3362,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="259" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A259" t="s">
         <v>6</v>
       </c>
@@ -3338,7 +3370,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="260" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A260" t="s">
         <v>6</v>
       </c>
@@ -3346,7 +3378,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="261" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A261" t="s">
         <v>6</v>
       </c>
@@ -3354,7 +3386,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="262" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A262" t="s">
         <v>6</v>
       </c>
@@ -3362,7 +3394,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="263" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A263" t="s">
         <v>6</v>
       </c>
@@ -3370,7 +3402,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="264" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A264" t="s">
         <v>6</v>
       </c>
@@ -3378,7 +3410,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="265" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A265" t="s">
         <v>6</v>
       </c>
@@ -3386,7 +3418,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="266" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A266" t="s">
         <v>6</v>
       </c>
@@ -3394,7 +3426,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="267" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A267" t="s">
         <v>6</v>
       </c>
@@ -3402,7 +3434,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="268" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A268" t="s">
         <v>6</v>
       </c>
@@ -3410,7 +3442,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="269" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A269" t="s">
         <v>6</v>
       </c>
@@ -3418,7 +3450,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="270" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A270" t="s">
         <v>6</v>
       </c>
@@ -3426,7 +3458,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="271" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A271" t="s">
         <v>6</v>
       </c>
@@ -3434,7 +3466,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="272" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A272" t="s">
         <v>6</v>
       </c>
@@ -3442,7 +3474,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="273" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A273" t="s">
         <v>6</v>
       </c>
@@ -3450,7 +3482,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="274" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A274" t="s">
         <v>6</v>
       </c>
@@ -3458,7 +3490,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="275" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A275" t="s">
         <v>6</v>
       </c>
@@ -3466,7 +3498,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="276" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A276" t="s">
         <v>6</v>
       </c>
@@ -3474,7 +3506,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="277" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A277" t="s">
         <v>6</v>
       </c>
@@ -3482,7 +3514,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="278" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A278" t="s">
         <v>6</v>
       </c>
@@ -3490,7 +3522,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="279" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A279" t="s">
         <v>6</v>
       </c>
@@ -3498,7 +3530,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="280" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A280" t="s">
         <v>6</v>
       </c>
@@ -3506,7 +3538,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="281" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A281" t="s">
         <v>6</v>
       </c>
@@ -3514,7 +3546,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="282" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A282" t="s">
         <v>6</v>
       </c>
@@ -3522,7 +3554,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="283" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A283" t="s">
         <v>68</v>
       </c>
@@ -3530,7 +3562,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="284" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A284" t="s">
         <v>74</v>
       </c>
@@ -3538,7 +3570,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="285" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A285" t="s">
         <v>145</v>
       </c>
@@ -3546,7 +3578,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="286" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A286" t="s">
         <v>79</v>
       </c>
@@ -3554,7 +3586,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="287" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A287" t="s">
         <v>10</v>
       </c>
@@ -3562,7 +3594,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="288" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A288" t="s">
         <v>10</v>
       </c>
@@ -3570,7 +3602,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="289" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A289" t="s">
         <v>10</v>
       </c>
@@ -3578,7 +3610,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="290" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A290" t="s">
         <v>157</v>
       </c>
@@ -3586,7 +3618,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="291" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A291" t="s">
         <v>17</v>
       </c>
@@ -3594,7 +3626,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="292" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A292" t="s">
         <v>67</v>
       </c>
@@ -3602,7 +3634,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="293" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A293" t="s">
         <v>76</v>
       </c>
@@ -3610,7 +3642,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="294" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A294" t="s">
         <v>31</v>
       </c>
@@ -3618,7 +3650,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="295" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A295" t="s">
         <v>50</v>
       </c>
@@ -3626,7 +3658,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="296" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A296" t="s">
         <v>121</v>
       </c>
@@ -3634,7 +3666,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="297" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A297" t="s">
         <v>88</v>
       </c>
@@ -3642,7 +3674,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="298" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A298" t="s">
         <v>69</v>
       </c>
@@ -3650,7 +3682,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="299" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A299" t="s">
         <v>141</v>
       </c>
@@ -3658,7 +3690,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="300" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A300" t="s">
         <v>51</v>
       </c>
@@ -3666,7 +3698,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="301" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A301" t="s">
         <v>15</v>
       </c>
@@ -3674,28 +3706,32 @@
         <v>0</v>
       </c>
     </row>
+    <row r="302" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A302" s="2"/>
+    </row>
   </sheetData>
-  <sortState ref="A2:B301">
-    <sortCondition ref="A34"/>
+  <sortState ref="A2:B302">
+    <sortCondition ref="A1"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:B201"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+    <sheetView tabSelected="1" topLeftCell="A174" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A202" sqref="A202"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="255.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="194.21875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>160</v>
       </c>
@@ -3703,7 +3739,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>201</v>
       </c>
@@ -3711,7 +3747,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>174</v>
       </c>
@@ -3719,7 +3755,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>248</v>
       </c>
@@ -3727,55 +3763,55 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5" s="2" t="s">
         <v>185</v>
       </c>
       <c r="B5">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="B6">
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>198</v>
       </c>
       <c r="B7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>228</v>
       </c>
       <c r="B8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>213</v>
       </c>
       <c r="B9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>202</v>
       </c>
       <c r="B10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>226</v>
       </c>
@@ -3783,7 +3819,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>188</v>
       </c>
@@ -3791,7 +3827,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>173</v>
       </c>
@@ -3799,15 +3835,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>206</v>
       </c>
       <c r="B14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>176</v>
       </c>
@@ -3815,15 +3851,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>183</v>
       </c>
       <c r="B16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>208</v>
       </c>
@@ -3831,7 +3867,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>237</v>
       </c>
@@ -3839,7 +3875,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>243</v>
       </c>
@@ -3847,7 +3883,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>140</v>
       </c>
@@ -3855,7 +3891,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>227</v>
       </c>
@@ -3863,7 +3899,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>218</v>
       </c>
@@ -3871,7 +3907,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>251</v>
       </c>
@@ -3879,7 +3915,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>238</v>
       </c>
@@ -3887,7 +3923,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>162</v>
       </c>
@@ -3895,15 +3931,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>214</v>
       </c>
       <c r="B26">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>171</v>
       </c>
@@ -3911,7 +3947,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>203</v>
       </c>
@@ -3919,7 +3955,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>195</v>
       </c>
@@ -3927,7 +3963,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>197</v>
       </c>
@@ -3935,7 +3971,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>231</v>
       </c>
@@ -3943,7 +3979,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>211</v>
       </c>
@@ -3951,7 +3987,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>230</v>
       </c>
@@ -3959,7 +3995,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>187</v>
       </c>
@@ -3967,7 +4003,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>204</v>
       </c>
@@ -3975,7 +4011,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>224</v>
       </c>
@@ -3983,7 +4019,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>186</v>
       </c>
@@ -3991,7 +4027,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>207</v>
       </c>
@@ -3999,7 +4035,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>239</v>
       </c>
@@ -4007,7 +4043,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>244</v>
       </c>
@@ -4015,7 +4051,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>216</v>
       </c>
@@ -4023,7 +4059,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>194</v>
       </c>
@@ -4031,7 +4067,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>193</v>
       </c>
@@ -4039,7 +4075,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>179</v>
       </c>
@@ -4047,7 +4083,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>182</v>
       </c>
@@ -4055,7 +4091,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>221</v>
       </c>
@@ -4063,7 +4099,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>209</v>
       </c>
@@ -4071,15 +4107,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="B48">
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>165</v>
       </c>
@@ -4087,7 +4123,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>246</v>
       </c>
@@ -4095,7 +4131,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>235</v>
       </c>
@@ -4103,7 +4139,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>219</v>
       </c>
@@ -4111,7 +4147,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>205</v>
       </c>
@@ -4119,7 +4155,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>234</v>
       </c>
@@ -4127,23 +4163,23 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>163</v>
       </c>
       <c r="B55">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>212</v>
       </c>
       <c r="B56">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>196</v>
       </c>
@@ -4151,23 +4187,23 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>175</v>
       </c>
       <c r="B58">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="B59">
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>242</v>
       </c>
@@ -4175,15 +4211,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
         <v>184</v>
       </c>
       <c r="B61">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
         <v>191</v>
       </c>
@@ -4191,7 +4227,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
         <v>240</v>
       </c>
@@ -4199,7 +4235,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
         <v>247</v>
       </c>
@@ -4207,7 +4243,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
         <v>225</v>
       </c>
@@ -4215,7 +4251,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
         <v>170</v>
       </c>
@@ -4223,7 +4259,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
         <v>200</v>
       </c>
@@ -4231,7 +4267,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
         <v>250</v>
       </c>
@@ -4239,7 +4275,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
         <v>222</v>
       </c>
@@ -4247,7 +4283,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
         <v>233</v>
       </c>
@@ -4255,7 +4291,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
         <v>169</v>
       </c>
@@ -4263,7 +4299,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
         <v>199</v>
       </c>
@@ -4271,7 +4307,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
         <v>229</v>
       </c>
@@ -4279,7 +4315,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
         <v>189</v>
       </c>
@@ -4287,7 +4323,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
         <v>210</v>
       </c>
@@ -4295,7 +4331,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
         <v>249</v>
       </c>
@@ -4303,7 +4339,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
         <v>223</v>
       </c>
@@ -4311,7 +4347,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
         <v>181</v>
       </c>
@@ -4319,7 +4355,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
         <v>2</v>
       </c>
@@ -4327,7 +4363,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
         <v>2</v>
       </c>
@@ -4335,7 +4371,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
         <v>2</v>
       </c>
@@ -4343,7 +4379,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
         <v>2</v>
       </c>
@@ -4351,7 +4387,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
         <v>2</v>
       </c>
@@ -4359,7 +4395,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
         <v>2</v>
       </c>
@@ -4367,7 +4403,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
         <v>2</v>
       </c>
@@ -4375,7 +4411,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
         <v>245</v>
       </c>
@@ -4383,7 +4419,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
         <v>8</v>
       </c>
@@ -4391,7 +4427,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
         <v>8</v>
       </c>
@@ -4399,7 +4435,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="89" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
         <v>8</v>
       </c>
@@ -4407,7 +4443,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="90" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
         <v>8</v>
       </c>
@@ -4415,7 +4451,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="91" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
         <v>8</v>
       </c>
@@ -4423,7 +4459,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="92" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
         <v>8</v>
       </c>
@@ -4431,7 +4467,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="93" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
         <v>9</v>
       </c>
@@ -4439,7 +4475,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="94" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
         <v>9</v>
       </c>
@@ -4447,7 +4483,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="95" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
         <v>9</v>
       </c>
@@ -4455,7 +4491,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="96" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
         <v>9</v>
       </c>
@@ -4463,7 +4499,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="97" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
         <v>9</v>
       </c>
@@ -4471,7 +4507,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="98" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
         <v>9</v>
       </c>
@@ -4479,7 +4515,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="99" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
         <v>9</v>
       </c>
@@ -4487,7 +4523,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="100" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
         <v>9</v>
       </c>
@@ -4495,7 +4531,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="101" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
         <v>9</v>
       </c>
@@ -4503,7 +4539,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="102" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A102" t="s">
         <v>9</v>
       </c>
@@ -4511,7 +4547,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="103" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A103" t="s">
         <v>9</v>
       </c>
@@ -4519,7 +4555,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="104" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A104" t="s">
         <v>9</v>
       </c>
@@ -4527,7 +4563,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="105" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A105" t="s">
         <v>9</v>
       </c>
@@ -4535,7 +4571,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="106" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A106" t="s">
         <v>9</v>
       </c>
@@ -4543,7 +4579,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="107" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A107" t="s">
         <v>9</v>
       </c>
@@ -4551,7 +4587,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="108" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A108" t="s">
         <v>19</v>
       </c>
@@ -4559,7 +4595,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="109" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A109" t="s">
         <v>19</v>
       </c>
@@ -4567,7 +4603,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="110" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A110" t="s">
         <v>167</v>
       </c>
@@ -4575,7 +4611,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="111" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A111" t="s">
         <v>18</v>
       </c>
@@ -4583,7 +4619,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="112" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A112" t="s">
         <v>18</v>
       </c>
@@ -4591,7 +4627,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="113" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A113" t="s">
         <v>18</v>
       </c>
@@ -4599,7 +4635,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="114" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A114" t="s">
         <v>18</v>
       </c>
@@ -4607,7 +4643,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="115" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A115" t="s">
         <v>18</v>
       </c>
@@ -4615,7 +4651,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="116" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A116" t="s">
         <v>18</v>
       </c>
@@ -4623,7 +4659,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="117" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A117" t="s">
         <v>18</v>
       </c>
@@ -4631,7 +4667,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="118" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A118" t="s">
         <v>18</v>
       </c>
@@ -4639,7 +4675,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="119" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A119" t="s">
         <v>18</v>
       </c>
@@ -4647,7 +4683,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="120" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A120" t="s">
         <v>18</v>
       </c>
@@ -4655,7 +4691,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="121" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A121" t="s">
         <v>18</v>
       </c>
@@ -4663,7 +4699,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="122" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A122" t="s">
         <v>18</v>
       </c>
@@ -4671,7 +4707,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="123" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A123" t="s">
         <v>18</v>
       </c>
@@ -4679,7 +4715,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="124" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A124" t="s">
         <v>11</v>
       </c>
@@ -4687,7 +4723,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="125" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A125" t="s">
         <v>11</v>
       </c>
@@ -4695,7 +4731,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="126" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A126" t="s">
         <v>11</v>
       </c>
@@ -4703,7 +4739,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="127" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A127" t="s">
         <v>11</v>
       </c>
@@ -4711,7 +4747,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="128" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A128" t="s">
         <v>11</v>
       </c>
@@ -4719,7 +4755,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="129" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A129" t="s">
         <v>11</v>
       </c>
@@ -4727,7 +4763,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="130" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A130" t="s">
         <v>11</v>
       </c>
@@ -4735,7 +4771,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="131" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A131" t="s">
         <v>11</v>
       </c>
@@ -4743,7 +4779,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="132" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A132" t="s">
         <v>215</v>
       </c>
@@ -4751,7 +4787,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="133" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A133" t="s">
         <v>12</v>
       </c>
@@ -4759,7 +4795,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="134" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A134" t="s">
         <v>12</v>
       </c>
@@ -4767,7 +4803,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="135" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A135" t="s">
         <v>168</v>
       </c>
@@ -4775,7 +4811,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="136" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A136" t="s">
         <v>236</v>
       </c>
@@ -4783,7 +4819,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="137" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A137" t="s">
         <v>1</v>
       </c>
@@ -4791,7 +4827,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="138" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A138" t="s">
         <v>1</v>
       </c>
@@ -4799,7 +4835,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="139" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A139" t="s">
         <v>6</v>
       </c>
@@ -4807,7 +4843,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="140" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A140" t="s">
         <v>6</v>
       </c>
@@ -4815,7 +4851,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="141" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A141" t="s">
         <v>6</v>
       </c>
@@ -4823,7 +4859,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="142" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A142" t="s">
         <v>6</v>
       </c>
@@ -4831,7 +4867,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="143" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A143" t="s">
         <v>6</v>
       </c>
@@ -4839,7 +4875,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="144" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A144" t="s">
         <v>6</v>
       </c>
@@ -4847,7 +4883,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="145" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A145" t="s">
         <v>6</v>
       </c>
@@ -4855,7 +4891,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="146" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A146" t="s">
         <v>6</v>
       </c>
@@ -4863,7 +4899,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="147" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A147" t="s">
         <v>6</v>
       </c>
@@ -4871,7 +4907,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="148" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A148" t="s">
         <v>6</v>
       </c>
@@ -4879,7 +4915,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="149" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A149" t="s">
         <v>6</v>
       </c>
@@ -4887,7 +4923,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="150" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A150" t="s">
         <v>6</v>
       </c>
@@ -4895,7 +4931,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="151" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A151" t="s">
         <v>6</v>
       </c>
@@ -4903,7 +4939,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="152" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A152" t="s">
         <v>6</v>
       </c>
@@ -4911,7 +4947,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="153" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A153" t="s">
         <v>6</v>
       </c>
@@ -4919,7 +4955,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="154" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A154" t="s">
         <v>6</v>
       </c>
@@ -4927,7 +4963,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="155" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A155" t="s">
         <v>6</v>
       </c>
@@ -4935,7 +4971,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="156" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A156" t="s">
         <v>6</v>
       </c>
@@ -4943,7 +4979,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="157" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A157" t="s">
         <v>6</v>
       </c>
@@ -4951,7 +4987,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="158" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A158" t="s">
         <v>6</v>
       </c>
@@ -4959,7 +4995,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="159" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A159" t="s">
         <v>6</v>
       </c>
@@ -4967,7 +5003,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="160" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A160" t="s">
         <v>6</v>
       </c>
@@ -4975,7 +5011,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="161" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A161" t="s">
         <v>6</v>
       </c>
@@ -4983,7 +5019,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="162" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A162" t="s">
         <v>6</v>
       </c>
@@ -4991,7 +5027,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="163" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A163" t="s">
         <v>6</v>
       </c>
@@ -4999,7 +5035,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="164" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A164" t="s">
         <v>6</v>
       </c>
@@ -5007,7 +5043,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="165" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A165" t="s">
         <v>6</v>
       </c>
@@ -5015,7 +5051,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="166" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A166" t="s">
         <v>6</v>
       </c>
@@ -5023,7 +5059,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="167" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A167" t="s">
         <v>6</v>
       </c>
@@ -5031,7 +5067,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="168" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A168" t="s">
         <v>6</v>
       </c>
@@ -5039,7 +5075,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="169" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A169" t="s">
         <v>6</v>
       </c>
@@ -5047,7 +5083,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="170" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A170" t="s">
         <v>6</v>
       </c>
@@ -5055,7 +5091,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="171" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A171" t="s">
         <v>6</v>
       </c>
@@ -5063,7 +5099,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="172" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A172" t="s">
         <v>6</v>
       </c>
@@ -5071,7 +5107,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="173" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A173" t="s">
         <v>6</v>
       </c>
@@ -5079,7 +5115,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="174" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A174" t="s">
         <v>6</v>
       </c>
@@ -5087,7 +5123,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="175" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A175" t="s">
         <v>6</v>
       </c>
@@ -5095,7 +5131,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="176" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A176" t="s">
         <v>6</v>
       </c>
@@ -5103,7 +5139,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="177" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A177" t="s">
         <v>6</v>
       </c>
@@ -5111,7 +5147,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="178" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A178" t="s">
         <v>6</v>
       </c>
@@ -5119,7 +5155,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="179" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A179" t="s">
         <v>6</v>
       </c>
@@ -5127,7 +5163,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="180" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A180" t="s">
         <v>6</v>
       </c>
@@ -5135,7 +5171,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="181" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A181" t="s">
         <v>6</v>
       </c>
@@ -5143,7 +5179,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="182" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A182" t="s">
         <v>6</v>
       </c>
@@ -5151,7 +5187,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="183" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A183" t="s">
         <v>6</v>
       </c>
@@ -5159,7 +5195,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="184" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A184" t="s">
         <v>6</v>
       </c>
@@ -5167,7 +5203,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="185" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A185" t="s">
         <v>6</v>
       </c>
@@ -5175,7 +5211,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="186" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A186" t="s">
         <v>6</v>
       </c>
@@ -5183,7 +5219,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="187" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A187" t="s">
         <v>6</v>
       </c>
@@ -5191,7 +5227,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="188" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A188" t="s">
         <v>232</v>
       </c>
@@ -5199,7 +5235,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="189" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A189" t="s">
         <v>10</v>
       </c>
@@ -5207,7 +5243,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="190" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A190" t="s">
         <v>180</v>
       </c>
@@ -5215,7 +5251,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="191" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A191" t="s">
         <v>177</v>
       </c>
@@ -5223,7 +5259,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="192" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A192" t="s">
         <v>164</v>
       </c>
@@ -5231,7 +5267,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="193" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A193" t="s">
         <v>192</v>
       </c>
@@ -5239,7 +5275,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="194" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A194" t="s">
         <v>172</v>
       </c>
@@ -5247,7 +5283,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="195" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A195" t="s">
         <v>217</v>
       </c>
@@ -5255,7 +5291,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="196" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A196" t="s">
         <v>241</v>
       </c>
@@ -5263,7 +5299,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="197" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A197" t="s">
         <v>161</v>
       </c>
@@ -5271,7 +5307,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="198" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A198" t="s">
         <v>166</v>
       </c>
@@ -5279,7 +5315,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="199" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A199" t="s">
         <v>220</v>
       </c>
@@ -5287,7 +5323,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="200" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A200" t="s">
         <v>178</v>
       </c>
@@ -5295,7 +5331,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="201" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A201" t="s">
         <v>190</v>
       </c>

--- a/Razer.xlsx
+++ b/Razer.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="20730"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\felip\OneDrive\Documentos\INSPER\Ciencia dos dados\projeto2\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Skank\Documents\GitHub\CDD-Projeto2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{63CA3F15-8820-499D-9721-85ABC8FDFD15}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9072" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9075"/>
   </bookViews>
   <sheets>
     <sheet name="Treinamento" sheetId="1" r:id="rId1"/>
@@ -151,9 +150,6 @@
     <t>razer lança versões aprimoradas do kraken, blackwidow e mamba https://t.co/npbkmify2z https://t.co/gruzx4nro3</t>
   </si>
   <si>
-    <t>#razer eleva o nível dos periféricos gamers de alta performance com versões aprimoradas do #kraken, #blackwidow e #mamba | https://t.co/bu6juqvehi #gamer #h7 #tech https://t.co/rfak7ninxa</t>
-  </si>
-  <si>
     <t>de olho nos esports, razer atualiza teclado, mouse e headset para gamers https://t.co/urjxrq3pep</t>
   </si>
   <si>
@@ -353,9 +349,6 @@
 https://t.co/n5ixyzt8pu https://t.co/ca30vrbk4b</t>
   </si>
   <si>
-    <t>@ana_werle @phillybeatzu @razer @asus_rog @echogear @divoom @tweethue @nanoleaf eu curti uajeushuee é muito lindo</t>
-  </si>
-  <si>
     <t>para comemorar o sucesso após um ano de black desert online no brasil, a redfox games preparou uma campanha para lá de especial: assista o vídeo, vote em sua dupla favorita até amanhã e concorra a acessórios gamers da dt3 e da razer! https://t.co/4rn4clbmsy … #games</t>
   </si>
   <si>
@@ -886,11 +879,17 @@
   <si>
     <t>relevancia</t>
   </si>
+  <si>
+    <t>e ao que forem ficar a o aos as os acabei de ir das casas dos e do pra a da liza que era pra por as minhas calças de volta pro e para pras pros pro em é que eh esse livro e este caderno essa e esta pois isto e isso é comum</t>
+  </si>
+  <si>
+    <t>de de de de as as as a a a a a ao o o o o o os para pra os para os desta vez nos de e q vai dos</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -969,7 +968,7 @@
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema do Office">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Escritório">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -1007,7 +1006,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Escritório">
       <a:majorFont>
         <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -1042,23 +1041,6 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -1094,26 +1076,9 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Escritório">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1286,115 +1251,115 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B302"/>
   <sheetViews>
-    <sheetView topLeftCell="A240" zoomScale="102" zoomScaleNormal="102" workbookViewId="0">
-      <selection activeCell="A240" sqref="A240"/>
+    <sheetView tabSelected="1" zoomScale="102" zoomScaleNormal="102" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="186.5546875" customWidth="1"/>
+    <col min="1" max="1" width="186.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>254</v>
+      </c>
+      <c r="B2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
         <v>255</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>34</v>
-      </c>
-      <c r="B2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>93</v>
       </c>
       <c r="B3">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B4">
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B5">
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B6">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B7">
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="B8">
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="B9">
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="B10">
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="B11">
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B12">
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>5</v>
       </c>
@@ -1402,23 +1367,23 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B14">
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="B15">
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>3</v>
       </c>
@@ -1426,7 +1391,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>25</v>
       </c>
@@ -1434,87 +1399,87 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="B18">
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B19">
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B20">
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="B21">
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="B22">
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="B23">
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B24">
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B25">
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B26">
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="B27">
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>22</v>
       </c>
@@ -1522,127 +1487,127 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="B29">
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="B30">
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="B31">
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B32">
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B33">
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="B34">
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="B35">
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B36">
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B37">
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="B38">
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B39">
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="B40">
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="B41">
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="B42">
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="B43">
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>7</v>
       </c>
@@ -1650,55 +1615,55 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B45">
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="B46">
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="B47">
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="B48">
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="B49">
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="B50">
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>21</v>
       </c>
@@ -1706,15 +1671,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B52">
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>20</v>
       </c>
@@ -1722,127 +1687,127 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="B54">
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="B55">
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B56">
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="B57">
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="B58">
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B59">
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B60">
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="B61">
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="B62">
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="B63">
         <v>1</v>
       </c>
     </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
+        <v>51</v>
+      </c>
+      <c r="B64">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
+        <v>153</v>
+      </c>
+      <c r="B65">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
         <v>52</v>
       </c>
-      <c r="B64">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A65" t="s">
-        <v>155</v>
-      </c>
-      <c r="B65">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A66" t="s">
-        <v>53</v>
-      </c>
       <c r="B66">
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="B67">
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="B68">
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>23</v>
       </c>
@@ -1850,15 +1815,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="B70">
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>30</v>
       </c>
@@ -1866,175 +1831,175 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B72">
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="B73">
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="B74">
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="B75">
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="B76">
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="B77">
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="B78">
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
+        <v>62</v>
+      </c>
+      <c r="B79">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A80" t="s">
         <v>63</v>
       </c>
-      <c r="B79">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A80" t="s">
+      <c r="B80">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A81" t="s">
+        <v>115</v>
+      </c>
+      <c r="B81">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A82" t="s">
+        <v>89</v>
+      </c>
+      <c r="B82">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A83" t="s">
+        <v>121</v>
+      </c>
+      <c r="B83">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A84" t="s">
+        <v>137</v>
+      </c>
+      <c r="B84">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A85" t="s">
+        <v>40</v>
+      </c>
+      <c r="B85">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A86" t="s">
+        <v>42</v>
+      </c>
+      <c r="B86">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A87" t="s">
+        <v>84</v>
+      </c>
+      <c r="B87">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A88" t="s">
+        <v>80</v>
+      </c>
+      <c r="B88">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A89" t="s">
+        <v>157</v>
+      </c>
+      <c r="B89">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A90" t="s">
+        <v>106</v>
+      </c>
+      <c r="B90">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A91" t="s">
         <v>64</v>
       </c>
-      <c r="B80">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A81" t="s">
-        <v>117</v>
-      </c>
-      <c r="B81">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A82" t="s">
-        <v>90</v>
-      </c>
-      <c r="B82">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A83" t="s">
-        <v>123</v>
-      </c>
-      <c r="B83">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A84" t="s">
-        <v>139</v>
-      </c>
-      <c r="B84">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A85" t="s">
-        <v>41</v>
-      </c>
-      <c r="B85">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A86" t="s">
-        <v>43</v>
-      </c>
-      <c r="B86">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A87" t="s">
-        <v>85</v>
-      </c>
-      <c r="B87">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A88" t="s">
-        <v>81</v>
-      </c>
-      <c r="B88">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="89" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A89" t="s">
-        <v>159</v>
-      </c>
-      <c r="B89">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="90" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A90" t="s">
-        <v>108</v>
-      </c>
-      <c r="B90">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="91" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A91" t="s">
-        <v>65</v>
-      </c>
       <c r="B91">
         <v>0</v>
       </c>
     </row>
-    <row r="92" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B92">
         <v>0</v>
       </c>
     </row>
-    <row r="93" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>29</v>
       </c>
@@ -2042,15 +2007,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="94" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B94">
         <v>1</v>
       </c>
     </row>
-    <row r="95" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>26</v>
       </c>
@@ -2058,39 +2023,39 @@
         <v>0</v>
       </c>
     </row>
-    <row r="96" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="B96">
         <v>0</v>
       </c>
     </row>
-    <row r="97" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B97">
         <v>1</v>
       </c>
     </row>
-    <row r="98" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B98">
         <v>0</v>
       </c>
     </row>
-    <row r="99" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B99">
         <v>0</v>
       </c>
     </row>
-    <row r="100" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>14</v>
       </c>
@@ -2098,55 +2063,55 @@
         <v>0</v>
       </c>
     </row>
-    <row r="101" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="B101">
         <v>0</v>
       </c>
     </row>
-    <row r="102" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B102">
         <v>0</v>
       </c>
     </row>
-    <row r="103" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="B103">
         <v>0</v>
       </c>
     </row>
-    <row r="104" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="B104">
         <v>0</v>
       </c>
     </row>
-    <row r="105" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B105">
         <v>0</v>
       </c>
     </row>
-    <row r="106" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B106">
         <v>1</v>
       </c>
     </row>
-    <row r="107" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
         <v>27</v>
       </c>
@@ -2154,23 +2119,23 @@
         <v>0</v>
       </c>
     </row>
-    <row r="108" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="B108">
         <v>0</v>
       </c>
     </row>
-    <row r="109" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="B109">
         <v>0</v>
       </c>
     </row>
-    <row r="110" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
         <v>24</v>
       </c>
@@ -2178,47 +2143,47 @@
         <v>0</v>
       </c>
     </row>
-    <row r="111" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="B111">
         <v>0</v>
       </c>
     </row>
-    <row r="112" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B112">
         <v>0</v>
       </c>
     </row>
-    <row r="113" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B113">
         <v>0</v>
       </c>
     </row>
-    <row r="114" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="B114">
         <v>0</v>
       </c>
     </row>
-    <row r="115" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B115">
         <v>0</v>
       </c>
     </row>
-    <row r="116" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
         <v>13</v>
       </c>
@@ -2226,31 +2191,31 @@
         <v>0</v>
       </c>
     </row>
-    <row r="117" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B117">
         <v>0</v>
       </c>
     </row>
-    <row r="118" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B118">
         <v>0</v>
       </c>
     </row>
-    <row r="119" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="B119">
         <v>0</v>
       </c>
     </row>
-    <row r="120" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
         <v>16</v>
       </c>
@@ -2258,15 +2223,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="121" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="B121">
         <v>0</v>
       </c>
     </row>
-    <row r="122" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
         <v>33</v>
       </c>
@@ -2274,23 +2239,23 @@
         <v>0</v>
       </c>
     </row>
-    <row r="123" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="B123">
         <v>0</v>
       </c>
     </row>
-    <row r="124" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B124">
         <v>0</v>
       </c>
     </row>
-    <row r="125" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
         <v>32</v>
       </c>
@@ -2298,47 +2263,47 @@
         <v>0</v>
       </c>
     </row>
-    <row r="126" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="B126">
         <v>0</v>
       </c>
     </row>
-    <row r="127" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="B127">
         <v>0</v>
       </c>
     </row>
-    <row r="128" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="B128">
         <v>0</v>
       </c>
     </row>
-    <row r="129" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B129">
         <v>0</v>
       </c>
     </row>
-    <row r="130" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="B130">
         <v>0</v>
       </c>
     </row>
-    <row r="131" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
         <v>4</v>
       </c>
@@ -2346,7 +2311,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="132" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
         <v>2</v>
       </c>
@@ -2354,7 +2319,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="133" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
         <v>2</v>
       </c>
@@ -2362,7 +2327,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="134" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
         <v>2</v>
       </c>
@@ -2370,7 +2335,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="135" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
         <v>2</v>
       </c>
@@ -2378,7 +2343,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="136" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
         <v>2</v>
       </c>
@@ -2386,7 +2351,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="137" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
         <v>8</v>
       </c>
@@ -2394,7 +2359,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="138" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
         <v>8</v>
       </c>
@@ -2402,7 +2367,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="139" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
         <v>8</v>
       </c>
@@ -2410,7 +2375,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="140" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
         <v>8</v>
       </c>
@@ -2418,7 +2383,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="141" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
         <v>8</v>
       </c>
@@ -2426,7 +2391,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="142" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
         <v>8</v>
       </c>
@@ -2434,7 +2399,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="143" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
         <v>8</v>
       </c>
@@ -2442,7 +2407,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="144" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
         <v>8</v>
       </c>
@@ -2450,7 +2415,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="145" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
         <v>9</v>
       </c>
@@ -2458,7 +2423,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="146" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
         <v>9</v>
       </c>
@@ -2466,7 +2431,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="147" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
         <v>9</v>
       </c>
@@ -2474,7 +2439,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="148" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
         <v>9</v>
       </c>
@@ -2482,7 +2447,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="149" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
         <v>9</v>
       </c>
@@ -2490,7 +2455,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="150" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
         <v>9</v>
       </c>
@@ -2498,7 +2463,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="151" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
         <v>9</v>
       </c>
@@ -2506,7 +2471,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="152" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
         <v>9</v>
       </c>
@@ -2514,7 +2479,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="153" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
         <v>9</v>
       </c>
@@ -2522,7 +2487,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="154" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
         <v>9</v>
       </c>
@@ -2530,7 +2495,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="155" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
         <v>9</v>
       </c>
@@ -2538,7 +2503,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="156" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
         <v>9</v>
       </c>
@@ -2546,7 +2511,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="157" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
         <v>9</v>
       </c>
@@ -2554,7 +2519,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="158" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
         <v>9</v>
       </c>
@@ -2562,23 +2527,23 @@
         <v>0</v>
       </c>
     </row>
-    <row r="159" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="B159">
         <v>0</v>
       </c>
     </row>
-    <row r="160" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B160">
         <v>1</v>
       </c>
     </row>
-    <row r="161" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
         <v>19</v>
       </c>
@@ -2586,7 +2551,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="162" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
         <v>28</v>
       </c>
@@ -2594,15 +2559,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="163" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B163">
         <v>0</v>
       </c>
     </row>
-    <row r="164" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
         <v>18</v>
       </c>
@@ -2610,7 +2575,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="165" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
         <v>18</v>
       </c>
@@ -2618,7 +2583,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="166" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
         <v>18</v>
       </c>
@@ -2626,7 +2591,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="167" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
         <v>18</v>
       </c>
@@ -2634,7 +2599,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="168" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
         <v>18</v>
       </c>
@@ -2642,7 +2607,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="169" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
         <v>18</v>
       </c>
@@ -2650,7 +2615,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="170" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
         <v>18</v>
       </c>
@@ -2658,7 +2623,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="171" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
         <v>18</v>
       </c>
@@ -2666,7 +2631,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="172" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
         <v>18</v>
       </c>
@@ -2674,7 +2639,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="173" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
         <v>18</v>
       </c>
@@ -2682,7 +2647,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="174" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
         <v>18</v>
       </c>
@@ -2690,7 +2655,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="175" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
         <v>18</v>
       </c>
@@ -2698,7 +2663,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="176" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
         <v>18</v>
       </c>
@@ -2706,7 +2671,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="177" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
         <v>18</v>
       </c>
@@ -2714,7 +2679,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="178" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
         <v>18</v>
       </c>
@@ -2722,7 +2687,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="179" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
         <v>18</v>
       </c>
@@ -2730,7 +2695,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="180" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
         <v>18</v>
       </c>
@@ -2738,7 +2703,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="181" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
         <v>18</v>
       </c>
@@ -2746,7 +2711,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="182" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
         <v>18</v>
       </c>
@@ -2754,7 +2719,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="183" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A183" t="s">
         <v>18</v>
       </c>
@@ -2762,7 +2727,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="184" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A184" t="s">
         <v>18</v>
       </c>
@@ -2770,7 +2735,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="185" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A185" t="s">
         <v>18</v>
       </c>
@@ -2778,7 +2743,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="186" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A186" t="s">
         <v>18</v>
       </c>
@@ -2786,7 +2751,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="187" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A187" t="s">
         <v>18</v>
       </c>
@@ -2794,7 +2759,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="188" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A188" t="s">
         <v>18</v>
       </c>
@@ -2802,7 +2767,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="189" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A189" t="s">
         <v>18</v>
       </c>
@@ -2810,7 +2775,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="190" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A190" t="s">
         <v>11</v>
       </c>
@@ -2818,7 +2783,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="191" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A191" t="s">
         <v>11</v>
       </c>
@@ -2826,7 +2791,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="192" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A192" t="s">
         <v>11</v>
       </c>
@@ -2834,7 +2799,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="193" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A193" t="s">
         <v>11</v>
       </c>
@@ -2842,7 +2807,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="194" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A194" t="s">
         <v>11</v>
       </c>
@@ -2850,7 +2815,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="195" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A195" t="s">
         <v>11</v>
       </c>
@@ -2858,7 +2823,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="196" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A196" t="s">
         <v>11</v>
       </c>
@@ -2866,7 +2831,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="197" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A197" t="s">
         <v>11</v>
       </c>
@@ -2874,7 +2839,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="198" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A198" t="s">
         <v>11</v>
       </c>
@@ -2882,7 +2847,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="199" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A199" t="s">
         <v>11</v>
       </c>
@@ -2890,7 +2855,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="200" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A200" t="s">
         <v>11</v>
       </c>
@@ -2898,7 +2863,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="201" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A201" t="s">
         <v>11</v>
       </c>
@@ -2906,7 +2871,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="202" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A202" t="s">
         <v>11</v>
       </c>
@@ -2914,7 +2879,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="203" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A203" t="s">
         <v>11</v>
       </c>
@@ -2922,7 +2887,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="204" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A204" t="s">
         <v>11</v>
       </c>
@@ -2930,7 +2895,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="205" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A205" t="s">
         <v>11</v>
       </c>
@@ -2938,7 +2903,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="206" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A206" t="s">
         <v>11</v>
       </c>
@@ -2946,7 +2911,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="207" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A207" t="s">
         <v>12</v>
       </c>
@@ -2954,7 +2919,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="208" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A208" t="s">
         <v>12</v>
       </c>
@@ -2962,7 +2927,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="209" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A209" t="s">
         <v>12</v>
       </c>
@@ -2970,7 +2935,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="210" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A210" t="s">
         <v>1</v>
       </c>
@@ -2978,7 +2943,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="211" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A211" t="s">
         <v>1</v>
       </c>
@@ -2986,7 +2951,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="212" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A212" t="s">
         <v>6</v>
       </c>
@@ -2994,7 +2959,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="213" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A213" t="s">
         <v>6</v>
       </c>
@@ -3002,7 +2967,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="214" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A214" t="s">
         <v>6</v>
       </c>
@@ -3010,7 +2975,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="215" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A215" t="s">
         <v>6</v>
       </c>
@@ -3018,7 +2983,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="216" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A216" t="s">
         <v>6</v>
       </c>
@@ -3026,7 +2991,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="217" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A217" t="s">
         <v>6</v>
       </c>
@@ -3034,7 +2999,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="218" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A218" t="s">
         <v>6</v>
       </c>
@@ -3042,7 +3007,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="219" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A219" t="s">
         <v>6</v>
       </c>
@@ -3050,7 +3015,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="220" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A220" t="s">
         <v>6</v>
       </c>
@@ -3058,7 +3023,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="221" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A221" t="s">
         <v>6</v>
       </c>
@@ -3066,7 +3031,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="222" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A222" t="s">
         <v>6</v>
       </c>
@@ -3074,7 +3039,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="223" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A223" t="s">
         <v>6</v>
       </c>
@@ -3082,7 +3047,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="224" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A224" t="s">
         <v>6</v>
       </c>
@@ -3090,7 +3055,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="225" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A225" t="s">
         <v>6</v>
       </c>
@@ -3098,7 +3063,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="226" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A226" t="s">
         <v>6</v>
       </c>
@@ -3106,7 +3071,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="227" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A227" t="s">
         <v>6</v>
       </c>
@@ -3114,7 +3079,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="228" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A228" t="s">
         <v>6</v>
       </c>
@@ -3122,7 +3087,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="229" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="229" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A229" t="s">
         <v>6</v>
       </c>
@@ -3130,7 +3095,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="230" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A230" t="s">
         <v>6</v>
       </c>
@@ -3138,7 +3103,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="231" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="231" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A231" t="s">
         <v>6</v>
       </c>
@@ -3146,7 +3111,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="232" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="232" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A232" t="s">
         <v>6</v>
       </c>
@@ -3154,7 +3119,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="233" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="233" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A233" t="s">
         <v>6</v>
       </c>
@@ -3162,7 +3127,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="234" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="234" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A234" t="s">
         <v>6</v>
       </c>
@@ -3170,7 +3135,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="235" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="235" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A235" t="s">
         <v>6</v>
       </c>
@@ -3178,7 +3143,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="236" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="236" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A236" t="s">
         <v>6</v>
       </c>
@@ -3186,7 +3151,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="237" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="237" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A237" t="s">
         <v>6</v>
       </c>
@@ -3194,7 +3159,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="238" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="238" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A238" t="s">
         <v>6</v>
       </c>
@@ -3202,7 +3167,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="239" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="239" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A239" t="s">
         <v>6</v>
       </c>
@@ -3210,7 +3175,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="240" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="240" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A240" t="s">
         <v>6</v>
       </c>
@@ -3218,7 +3183,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="241" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="241" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A241" t="s">
         <v>6</v>
       </c>
@@ -3226,7 +3191,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="242" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="242" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A242" t="s">
         <v>6</v>
       </c>
@@ -3234,7 +3199,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="243" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="243" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A243" t="s">
         <v>6</v>
       </c>
@@ -3242,7 +3207,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="244" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="244" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A244" t="s">
         <v>6</v>
       </c>
@@ -3250,7 +3215,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="245" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="245" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A245" t="s">
         <v>6</v>
       </c>
@@ -3258,7 +3223,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="246" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="246" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A246" t="s">
         <v>6</v>
       </c>
@@ -3266,7 +3231,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="247" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="247" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A247" t="s">
         <v>6</v>
       </c>
@@ -3274,7 +3239,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="248" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="248" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A248" t="s">
         <v>6</v>
       </c>
@@ -3282,7 +3247,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="249" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="249" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A249" t="s">
         <v>6</v>
       </c>
@@ -3290,7 +3255,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="250" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="250" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A250" t="s">
         <v>6</v>
       </c>
@@ -3298,7 +3263,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="251" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="251" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A251" t="s">
         <v>6</v>
       </c>
@@ -3306,7 +3271,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="252" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="252" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A252" t="s">
         <v>6</v>
       </c>
@@ -3314,7 +3279,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="253" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="253" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A253" t="s">
         <v>6</v>
       </c>
@@ -3322,7 +3287,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="254" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="254" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A254" t="s">
         <v>6</v>
       </c>
@@ -3330,7 +3295,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="255" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="255" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A255" t="s">
         <v>6</v>
       </c>
@@ -3338,7 +3303,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="256" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="256" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A256" t="s">
         <v>6</v>
       </c>
@@ -3346,7 +3311,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="257" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="257" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A257" t="s">
         <v>6</v>
       </c>
@@ -3354,7 +3319,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="258" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="258" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A258" t="s">
         <v>6</v>
       </c>
@@ -3362,7 +3327,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="259" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="259" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A259" t="s">
         <v>6</v>
       </c>
@@ -3370,7 +3335,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="260" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="260" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A260" t="s">
         <v>6</v>
       </c>
@@ -3378,7 +3343,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="261" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="261" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A261" t="s">
         <v>6</v>
       </c>
@@ -3386,7 +3351,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="262" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="262" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A262" t="s">
         <v>6</v>
       </c>
@@ -3394,7 +3359,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="263" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="263" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A263" t="s">
         <v>6</v>
       </c>
@@ -3402,7 +3367,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="264" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="264" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A264" t="s">
         <v>6</v>
       </c>
@@ -3410,7 +3375,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="265" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="265" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A265" t="s">
         <v>6</v>
       </c>
@@ -3418,7 +3383,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="266" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="266" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A266" t="s">
         <v>6</v>
       </c>
@@ -3426,7 +3391,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="267" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="267" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A267" t="s">
         <v>6</v>
       </c>
@@ -3434,7 +3399,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="268" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="268" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A268" t="s">
         <v>6</v>
       </c>
@@ -3442,7 +3407,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="269" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="269" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A269" t="s">
         <v>6</v>
       </c>
@@ -3450,7 +3415,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="270" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="270" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A270" t="s">
         <v>6</v>
       </c>
@@ -3458,7 +3423,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="271" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="271" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A271" t="s">
         <v>6</v>
       </c>
@@ -3466,7 +3431,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="272" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="272" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A272" t="s">
         <v>6</v>
       </c>
@@ -3474,7 +3439,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="273" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="273" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A273" t="s">
         <v>6</v>
       </c>
@@ -3482,7 +3447,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="274" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="274" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A274" t="s">
         <v>6</v>
       </c>
@@ -3490,7 +3455,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="275" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="275" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A275" t="s">
         <v>6</v>
       </c>
@@ -3498,7 +3463,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="276" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="276" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A276" t="s">
         <v>6</v>
       </c>
@@ -3506,7 +3471,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="277" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="277" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A277" t="s">
         <v>6</v>
       </c>
@@ -3514,7 +3479,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="278" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="278" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A278" t="s">
         <v>6</v>
       </c>
@@ -3522,7 +3487,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="279" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="279" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A279" t="s">
         <v>6</v>
       </c>
@@ -3530,7 +3495,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="280" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="280" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A280" t="s">
         <v>6</v>
       </c>
@@ -3538,7 +3503,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="281" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="281" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A281" t="s">
         <v>6</v>
       </c>
@@ -3546,7 +3511,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="282" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="282" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A282" t="s">
         <v>6</v>
       </c>
@@ -3554,39 +3519,39 @@
         <v>0</v>
       </c>
     </row>
-    <row r="283" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="283" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A283" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B283">
         <v>0</v>
       </c>
     </row>
-    <row r="284" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="284" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A284" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B284">
         <v>0</v>
       </c>
     </row>
-    <row r="285" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="285" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A285" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="B285">
         <v>0</v>
       </c>
     </row>
-    <row r="286" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="286" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A286" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B286">
         <v>0</v>
       </c>
     </row>
-    <row r="287" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="287" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A287" t="s">
         <v>10</v>
       </c>
@@ -3594,7 +3559,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="288" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="288" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A288" t="s">
         <v>10</v>
       </c>
@@ -3602,7 +3567,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="289" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="289" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A289" t="s">
         <v>10</v>
       </c>
@@ -3610,15 +3575,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="290" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="290" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A290" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="B290">
         <v>0</v>
       </c>
     </row>
-    <row r="291" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="291" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A291" t="s">
         <v>17</v>
       </c>
@@ -3626,23 +3591,23 @@
         <v>0</v>
       </c>
     </row>
-    <row r="292" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="292" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A292" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B292">
         <v>0</v>
       </c>
     </row>
-    <row r="293" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="293" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A293" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B293">
         <v>0</v>
       </c>
     </row>
-    <row r="294" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="294" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A294" t="s">
         <v>31</v>
       </c>
@@ -3650,55 +3615,55 @@
         <v>1</v>
       </c>
     </row>
-    <row r="295" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="295" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A295" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B295">
         <v>0</v>
       </c>
     </row>
-    <row r="296" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="296" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A296" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="B296">
         <v>0</v>
       </c>
     </row>
-    <row r="297" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="297" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A297" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B297">
         <v>1</v>
       </c>
     </row>
-    <row r="298" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="298" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A298" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B298">
         <v>1</v>
       </c>
     </row>
-    <row r="299" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="299" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A299" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="B299">
         <v>0</v>
       </c>
     </row>
-    <row r="300" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="300" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A300" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B300">
         <v>0</v>
       </c>
     </row>
-    <row r="301" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="301" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A301" t="s">
         <v>15</v>
       </c>
@@ -3706,7 +3671,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="302" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="302" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A302" s="2"/>
     </row>
   </sheetData>
@@ -3719,643 +3684,643 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B201"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A174" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A202" sqref="A202"/>
+    <sheetView topLeftCell="A5" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="194.21875" customWidth="1"/>
+    <col min="1" max="1" width="194.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="B1" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="B2">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="B3">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="B4">
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="B5">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="B6">
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="B7">
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="B8">
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="B9">
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="B10">
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="B11">
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="B12">
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="B13">
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="B14">
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="B15">
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="B16">
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="B17">
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="B18">
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="B19">
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="B20">
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="B21">
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="B22">
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="B23">
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="B24">
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="B25">
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="B26">
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="B27">
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
+        <v>201</v>
+      </c>
+      <c r="B28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>193</v>
+      </c>
+      <c r="B29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>195</v>
+      </c>
+      <c r="B30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>229</v>
+      </c>
+      <c r="B31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>209</v>
+      </c>
+      <c r="B32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>228</v>
+      </c>
+      <c r="B33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>185</v>
+      </c>
+      <c r="B34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>202</v>
+      </c>
+      <c r="B35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>222</v>
+      </c>
+      <c r="B36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>184</v>
+      </c>
+      <c r="B37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>205</v>
+      </c>
+      <c r="B38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>237</v>
+      </c>
+      <c r="B39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>242</v>
+      </c>
+      <c r="B40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>214</v>
+      </c>
+      <c r="B41">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>192</v>
+      </c>
+      <c r="B42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>191</v>
+      </c>
+      <c r="B43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>177</v>
+      </c>
+      <c r="B44">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>180</v>
+      </c>
+      <c r="B45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>219</v>
+      </c>
+      <c r="B46">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>207</v>
+      </c>
+      <c r="B47">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>252</v>
+      </c>
+      <c r="B48">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>163</v>
+      </c>
+      <c r="B49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>244</v>
+      </c>
+      <c r="B50">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>233</v>
+      </c>
+      <c r="B51">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>217</v>
+      </c>
+      <c r="B52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
         <v>203</v>
       </c>
-      <c r="B28">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A29" t="s">
-        <v>195</v>
-      </c>
-      <c r="B29">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A30" t="s">
-        <v>197</v>
-      </c>
-      <c r="B30">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A31" t="s">
-        <v>231</v>
-      </c>
-      <c r="B31">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A32" t="s">
-        <v>211</v>
-      </c>
-      <c r="B32">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A33" t="s">
-        <v>230</v>
-      </c>
-      <c r="B33">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A34" t="s">
-        <v>187</v>
-      </c>
-      <c r="B34">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A35" t="s">
-        <v>204</v>
-      </c>
-      <c r="B35">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A36" t="s">
-        <v>224</v>
-      </c>
-      <c r="B36">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A37" t="s">
-        <v>186</v>
-      </c>
-      <c r="B37">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A38" t="s">
-        <v>207</v>
-      </c>
-      <c r="B38">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A39" t="s">
-        <v>239</v>
-      </c>
-      <c r="B39">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A40" t="s">
-        <v>244</v>
-      </c>
-      <c r="B40">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A41" t="s">
-        <v>216</v>
-      </c>
-      <c r="B41">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A42" t="s">
-        <v>194</v>
-      </c>
-      <c r="B42">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A43" t="s">
-        <v>193</v>
-      </c>
-      <c r="B43">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A44" t="s">
-        <v>179</v>
-      </c>
-      <c r="B44">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A45" t="s">
-        <v>182</v>
-      </c>
-      <c r="B45">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A46" t="s">
-        <v>221</v>
-      </c>
-      <c r="B46">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A47" t="s">
-        <v>209</v>
-      </c>
-      <c r="B47">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A48" t="s">
-        <v>254</v>
-      </c>
-      <c r="B48">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A49" t="s">
-        <v>165</v>
-      </c>
-      <c r="B49">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A50" t="s">
-        <v>246</v>
-      </c>
-      <c r="B50">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A51" t="s">
-        <v>235</v>
-      </c>
-      <c r="B51">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A52" t="s">
-        <v>219</v>
-      </c>
-      <c r="B52">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A53" t="s">
-        <v>205</v>
-      </c>
       <c r="B53">
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="B54">
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="B55">
         <v>1</v>
       </c>
     </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="B56">
         <v>1</v>
       </c>
     </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="B57">
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="B58">
         <v>1</v>
       </c>
     </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="B59">
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="B60">
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="B61">
         <v>1</v>
       </c>
     </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="B62">
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="B63">
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
+        <v>245</v>
+      </c>
+      <c r="B64">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
+        <v>223</v>
+      </c>
+      <c r="B65">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
+        <v>168</v>
+      </c>
+      <c r="B66">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
+        <v>198</v>
+      </c>
+      <c r="B67">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A68" t="s">
+        <v>248</v>
+      </c>
+      <c r="B68">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A69" t="s">
+        <v>220</v>
+      </c>
+      <c r="B69">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A70" t="s">
+        <v>231</v>
+      </c>
+      <c r="B70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A71" t="s">
+        <v>167</v>
+      </c>
+      <c r="B71">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A72" t="s">
+        <v>197</v>
+      </c>
+      <c r="B72">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A73" t="s">
+        <v>227</v>
+      </c>
+      <c r="B73">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A74" t="s">
+        <v>187</v>
+      </c>
+      <c r="B74">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A75" t="s">
+        <v>208</v>
+      </c>
+      <c r="B75">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A76" t="s">
         <v>247</v>
       </c>
-      <c r="B64">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A65" t="s">
-        <v>225</v>
-      </c>
-      <c r="B65">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A66" t="s">
-        <v>170</v>
-      </c>
-      <c r="B66">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A67" t="s">
-        <v>200</v>
-      </c>
-      <c r="B67">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A68" t="s">
-        <v>250</v>
-      </c>
-      <c r="B68">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A69" t="s">
-        <v>222</v>
-      </c>
-      <c r="B69">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A70" t="s">
-        <v>233</v>
-      </c>
-      <c r="B70">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A71" t="s">
-        <v>169</v>
-      </c>
-      <c r="B71">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A72" t="s">
-        <v>199</v>
-      </c>
-      <c r="B72">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A73" t="s">
-        <v>229</v>
-      </c>
-      <c r="B73">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A74" t="s">
-        <v>189</v>
-      </c>
-      <c r="B74">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A75" t="s">
-        <v>210</v>
-      </c>
-      <c r="B75">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A76" t="s">
-        <v>249</v>
-      </c>
       <c r="B76">
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="B77">
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="B78">
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>2</v>
       </c>
@@ -4363,7 +4328,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>2</v>
       </c>
@@ -4371,7 +4336,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>2</v>
       </c>
@@ -4379,7 +4344,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>2</v>
       </c>
@@ -4387,7 +4352,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>2</v>
       </c>
@@ -4395,7 +4360,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>2</v>
       </c>
@@ -4403,7 +4368,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>2</v>
       </c>
@@ -4411,15 +4376,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="B86">
         <v>0</v>
       </c>
     </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>8</v>
       </c>
@@ -4427,7 +4392,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>8</v>
       </c>
@@ -4435,7 +4400,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="89" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>8</v>
       </c>
@@ -4443,7 +4408,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="90" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>8</v>
       </c>
@@ -4451,7 +4416,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="91" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>8</v>
       </c>
@@ -4459,7 +4424,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="92" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>8</v>
       </c>
@@ -4467,7 +4432,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="93" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>9</v>
       </c>
@@ -4475,7 +4440,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="94" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>9</v>
       </c>
@@ -4483,7 +4448,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="95" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>9</v>
       </c>
@@ -4491,7 +4456,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="96" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>9</v>
       </c>
@@ -4499,7 +4464,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="97" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>9</v>
       </c>
@@ -4507,7 +4472,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="98" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>9</v>
       </c>
@@ -4515,7 +4480,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="99" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>9</v>
       </c>
@@ -4523,7 +4488,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="100" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>9</v>
       </c>
@@ -4531,7 +4496,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="101" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
         <v>9</v>
       </c>
@@ -4539,7 +4504,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="102" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
         <v>9</v>
       </c>
@@ -4547,7 +4512,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="103" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
         <v>9</v>
       </c>
@@ -4555,7 +4520,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="104" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
         <v>9</v>
       </c>
@@ -4563,7 +4528,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="105" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
         <v>9</v>
       </c>
@@ -4571,7 +4536,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="106" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
         <v>9</v>
       </c>
@@ -4579,7 +4544,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="107" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
         <v>9</v>
       </c>
@@ -4587,7 +4552,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="108" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
         <v>19</v>
       </c>
@@ -4595,7 +4560,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="109" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
         <v>19</v>
       </c>
@@ -4603,15 +4568,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="110" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="B110">
         <v>0</v>
       </c>
     </row>
-    <row r="111" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
         <v>18</v>
       </c>
@@ -4619,7 +4584,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="112" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
         <v>18</v>
       </c>
@@ -4627,7 +4592,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="113" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
         <v>18</v>
       </c>
@@ -4635,7 +4600,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="114" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
         <v>18</v>
       </c>
@@ -4643,7 +4608,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="115" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
         <v>18</v>
       </c>
@@ -4651,7 +4616,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="116" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
         <v>18</v>
       </c>
@@ -4659,7 +4624,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="117" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
         <v>18</v>
       </c>
@@ -4667,7 +4632,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="118" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
         <v>18</v>
       </c>
@@ -4675,7 +4640,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="119" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
         <v>18</v>
       </c>
@@ -4683,7 +4648,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="120" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
         <v>18</v>
       </c>
@@ -4691,7 +4656,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="121" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
         <v>18</v>
       </c>
@@ -4699,7 +4664,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="122" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
         <v>18</v>
       </c>
@@ -4707,7 +4672,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="123" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
         <v>18</v>
       </c>
@@ -4715,7 +4680,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="124" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
         <v>11</v>
       </c>
@@ -4723,7 +4688,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="125" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
         <v>11</v>
       </c>
@@ -4731,7 +4696,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="126" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
         <v>11</v>
       </c>
@@ -4739,7 +4704,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="127" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
         <v>11</v>
       </c>
@@ -4747,7 +4712,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="128" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
         <v>11</v>
       </c>
@@ -4755,7 +4720,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="129" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
         <v>11</v>
       </c>
@@ -4763,7 +4728,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="130" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
         <v>11</v>
       </c>
@@ -4771,7 +4736,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="131" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
         <v>11</v>
       </c>
@@ -4779,15 +4744,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="132" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="B132">
         <v>0</v>
       </c>
     </row>
-    <row r="133" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
         <v>12</v>
       </c>
@@ -4795,7 +4760,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="134" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
         <v>12</v>
       </c>
@@ -4803,23 +4768,23 @@
         <v>0</v>
       </c>
     </row>
-    <row r="135" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="B135">
         <v>0</v>
       </c>
     </row>
-    <row r="136" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="B136">
         <v>0</v>
       </c>
     </row>
-    <row r="137" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
         <v>1</v>
       </c>
@@ -4827,7 +4792,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="138" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
         <v>1</v>
       </c>
@@ -4835,7 +4800,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="139" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
         <v>6</v>
       </c>
@@ -4843,7 +4808,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="140" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
         <v>6</v>
       </c>
@@ -4851,7 +4816,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="141" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
         <v>6</v>
       </c>
@@ -4859,7 +4824,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="142" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
         <v>6</v>
       </c>
@@ -4867,7 +4832,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="143" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
         <v>6</v>
       </c>
@@ -4875,7 +4840,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="144" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
         <v>6</v>
       </c>
@@ -4883,7 +4848,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="145" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
         <v>6</v>
       </c>
@@ -4891,7 +4856,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="146" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
         <v>6</v>
       </c>
@@ -4899,7 +4864,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="147" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
         <v>6</v>
       </c>
@@ -4907,7 +4872,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="148" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
         <v>6</v>
       </c>
@@ -4915,7 +4880,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="149" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
         <v>6</v>
       </c>
@@ -4923,7 +4888,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="150" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
         <v>6</v>
       </c>
@@ -4931,7 +4896,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="151" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
         <v>6</v>
       </c>
@@ -4939,7 +4904,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="152" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
         <v>6</v>
       </c>
@@ -4947,7 +4912,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="153" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
         <v>6</v>
       </c>
@@ -4955,7 +4920,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="154" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
         <v>6</v>
       </c>
@@ -4963,7 +4928,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="155" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
         <v>6</v>
       </c>
@@ -4971,7 +4936,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="156" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
         <v>6</v>
       </c>
@@ -4979,7 +4944,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="157" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
         <v>6</v>
       </c>
@@ -4987,7 +4952,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="158" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
         <v>6</v>
       </c>
@@ -4995,7 +4960,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="159" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
         <v>6</v>
       </c>
@@ -5003,7 +4968,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="160" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
         <v>6</v>
       </c>
@@ -5011,7 +4976,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="161" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
         <v>6</v>
       </c>
@@ -5019,7 +4984,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="162" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
         <v>6</v>
       </c>
@@ -5027,7 +4992,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="163" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
         <v>6</v>
       </c>
@@ -5035,7 +5000,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="164" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
         <v>6</v>
       </c>
@@ -5043,7 +5008,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="165" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
         <v>6</v>
       </c>
@@ -5051,7 +5016,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="166" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
         <v>6</v>
       </c>
@@ -5059,7 +5024,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="167" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
         <v>6</v>
       </c>
@@ -5067,7 +5032,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="168" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
         <v>6</v>
       </c>
@@ -5075,7 +5040,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="169" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
         <v>6</v>
       </c>
@@ -5083,7 +5048,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="170" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
         <v>6</v>
       </c>
@@ -5091,7 +5056,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="171" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
         <v>6</v>
       </c>
@@ -5099,7 +5064,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="172" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
         <v>6</v>
       </c>
@@ -5107,7 +5072,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="173" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
         <v>6</v>
       </c>
@@ -5115,7 +5080,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="174" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
         <v>6</v>
       </c>
@@ -5123,7 +5088,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="175" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
         <v>6</v>
       </c>
@@ -5131,7 +5096,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="176" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
         <v>6</v>
       </c>
@@ -5139,7 +5104,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="177" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
         <v>6</v>
       </c>
@@ -5147,7 +5112,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="178" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
         <v>6</v>
       </c>
@@ -5155,7 +5120,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="179" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
         <v>6</v>
       </c>
@@ -5163,7 +5128,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="180" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
         <v>6</v>
       </c>
@@ -5171,7 +5136,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="181" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
         <v>6</v>
       </c>
@@ -5179,7 +5144,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="182" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
         <v>6</v>
       </c>
@@ -5187,7 +5152,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="183" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A183" t="s">
         <v>6</v>
       </c>
@@ -5195,7 +5160,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="184" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A184" t="s">
         <v>6</v>
       </c>
@@ -5203,7 +5168,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="185" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A185" t="s">
         <v>6</v>
       </c>
@@ -5211,7 +5176,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="186" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A186" t="s">
         <v>6</v>
       </c>
@@ -5219,7 +5184,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="187" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A187" t="s">
         <v>6</v>
       </c>
@@ -5227,15 +5192,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="188" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A188" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="B188">
         <v>0</v>
       </c>
     </row>
-    <row r="189" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A189" t="s">
         <v>10</v>
       </c>
@@ -5243,97 +5208,97 @@
         <v>0</v>
       </c>
     </row>
-    <row r="190" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A190" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="B190">
         <v>0</v>
       </c>
     </row>
-    <row r="191" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A191" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="B191">
         <v>0</v>
       </c>
     </row>
-    <row r="192" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A192" t="s">
+        <v>162</v>
+      </c>
+      <c r="B192">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="193" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A193" t="s">
+        <v>190</v>
+      </c>
+      <c r="B193">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="194" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A194" t="s">
+        <v>170</v>
+      </c>
+      <c r="B194">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="195" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A195" t="s">
+        <v>215</v>
+      </c>
+      <c r="B195">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="196" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A196" t="s">
+        <v>239</v>
+      </c>
+      <c r="B196">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="197" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A197" t="s">
+        <v>159</v>
+      </c>
+      <c r="B197">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="198" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A198" t="s">
         <v>164</v>
       </c>
-      <c r="B192">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="193" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A193" t="s">
-        <v>192</v>
-      </c>
-      <c r="B193">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="194" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A194" t="s">
-        <v>172</v>
-      </c>
-      <c r="B194">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="195" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A195" t="s">
-        <v>217</v>
-      </c>
-      <c r="B195">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="196" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A196" t="s">
-        <v>241</v>
-      </c>
-      <c r="B196">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="197" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A197" t="s">
-        <v>161</v>
-      </c>
-      <c r="B197">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="198" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A198" t="s">
-        <v>166</v>
-      </c>
       <c r="B198">
         <v>0</v>
       </c>
     </row>
-    <row r="199" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A199" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="B199">
         <v>0</v>
       </c>
     </row>
-    <row r="200" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A200" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="B200">
         <v>0</v>
       </c>
     </row>
-    <row r="201" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A201" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="B201">
         <v>0</v>

--- a/Razer.xlsx
+++ b/Razer.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="20730"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Skank\Documents\GitHub\CDD-Projeto2\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\felip\OneDrive\Documentos\INSPER\Ciencia dos dados\projeto2\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{63CA3F15-8820-499D-9721-85ABC8FDFD15}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9075"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9072" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Treinamento" sheetId="1" r:id="rId1"/>
@@ -150,6 +151,9 @@
     <t>razer lança versões aprimoradas do kraken, blackwidow e mamba https://t.co/npbkmify2z https://t.co/gruzx4nro3</t>
   </si>
   <si>
+    <t>#razer eleva o nível dos periféricos gamers de alta performance com versões aprimoradas do #kraken, #blackwidow e #mamba | https://t.co/bu6juqvehi #gamer #h7 #tech https://t.co/rfak7ninxa</t>
+  </si>
+  <si>
     <t>de olho nos esports, razer atualiza teclado, mouse e headset para gamers https://t.co/urjxrq3pep</t>
   </si>
   <si>
@@ -349,6 +353,9 @@
 https://t.co/n5ixyzt8pu https://t.co/ca30vrbk4b</t>
   </si>
   <si>
+    <t>@ana_werle @phillybeatzu @razer @asus_rog @echogear @divoom @tweethue @nanoleaf eu curti uajeushuee é muito lindo</t>
+  </si>
+  <si>
     <t>para comemorar o sucesso após um ano de black desert online no brasil, a redfox games preparou uma campanha para lá de especial: assista o vídeo, vote em sua dupla favorita até amanhã e concorra a acessórios gamers da dt3 e da razer! https://t.co/4rn4clbmsy … #games</t>
   </si>
   <si>
@@ -879,17 +886,11 @@
   <si>
     <t>relevancia</t>
   </si>
-  <si>
-    <t>e ao que forem ficar a o aos as os acabei de ir das casas dos e do pra a da liza que era pra por as minhas calças de volta pro e para pras pros pro em é que eh esse livro e este caderno essa e esta pois isto e isso é comum</t>
-  </si>
-  <si>
-    <t>de de de de as as as a a a a a ao o o o o o os para pra os para os desta vez nos de e q vai dos</t>
-  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -968,7 +969,7 @@
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema do Office">
   <a:themeElements>
-    <a:clrScheme name="Escritório">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -1006,7 +1007,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Escritório">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -1041,6 +1042,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -1076,9 +1094,26 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Escritório">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1251,115 +1286,115 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B302"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="102" zoomScaleNormal="102" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+    <sheetView topLeftCell="A240" zoomScale="102" zoomScaleNormal="102" workbookViewId="0">
+      <selection activeCell="A240" sqref="A240"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="186.5703125" customWidth="1"/>
+    <col min="1" max="1" width="186.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>254</v>
+        <v>34</v>
       </c>
       <c r="B2">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>255</v>
+        <v>93</v>
       </c>
       <c r="B3">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B4">
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B5">
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B6">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B7">
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="B8">
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="B9">
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="B10">
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="B11">
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B12">
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>5</v>
       </c>
@@ -1367,23 +1402,23 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B14">
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B15">
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>3</v>
       </c>
@@ -1391,7 +1426,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>25</v>
       </c>
@@ -1399,87 +1434,87 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="B18">
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B19">
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B20">
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="B21">
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B22">
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="B23">
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B24">
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B25">
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B26">
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B27">
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>22</v>
       </c>
@@ -1487,127 +1522,127 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B29">
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="B30">
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="B31">
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B32">
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B33">
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="B34">
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="B35">
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B36">
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B37">
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="B38">
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B39">
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="B40">
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="B41">
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="B42">
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B43">
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>7</v>
       </c>
@@ -1615,55 +1650,55 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B45">
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="B46">
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="B47">
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="B48">
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="B49">
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B50">
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>21</v>
       </c>
@@ -1671,15 +1706,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B52">
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>20</v>
       </c>
@@ -1687,127 +1722,127 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B54">
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="B55">
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B56">
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="B57">
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B58">
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B59">
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B60">
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
+        <v>100</v>
+      </c>
+      <c r="B61">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A62" t="s">
+        <v>109</v>
+      </c>
+      <c r="B62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A63" t="s">
         <v>98</v>
-      </c>
-      <c r="B61">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A62" t="s">
-        <v>107</v>
-      </c>
-      <c r="B62">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A63" t="s">
-        <v>96</v>
       </c>
       <c r="B63">
         <v>1</v>
       </c>
     </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B64">
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
+        <v>155</v>
+      </c>
+      <c r="B65">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A66" t="s">
+        <v>53</v>
+      </c>
+      <c r="B66">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A67" t="s">
         <v>153</v>
       </c>
-      <c r="B65">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A66" t="s">
-        <v>52</v>
-      </c>
-      <c r="B66">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A67" t="s">
-        <v>151</v>
-      </c>
       <c r="B67">
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="B68">
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
         <v>23</v>
       </c>
@@ -1815,15 +1850,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="B70">
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
         <v>30</v>
       </c>
@@ -1831,175 +1866,175 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B72">
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
+        <v>110</v>
+      </c>
+      <c r="B73">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A74" t="s">
+        <v>146</v>
+      </c>
+      <c r="B74">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A75" t="s">
+        <v>97</v>
+      </c>
+      <c r="B75">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A76" t="s">
+        <v>132</v>
+      </c>
+      <c r="B76">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A77" t="s">
+        <v>135</v>
+      </c>
+      <c r="B77">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A78" t="s">
+        <v>113</v>
+      </c>
+      <c r="B78">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A79" t="s">
+        <v>63</v>
+      </c>
+      <c r="B79">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A80" t="s">
+        <v>64</v>
+      </c>
+      <c r="B80">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A81" t="s">
+        <v>117</v>
+      </c>
+      <c r="B81">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A82" t="s">
+        <v>90</v>
+      </c>
+      <c r="B82">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A83" t="s">
+        <v>123</v>
+      </c>
+      <c r="B83">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A84" t="s">
+        <v>139</v>
+      </c>
+      <c r="B84">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A85" t="s">
+        <v>41</v>
+      </c>
+      <c r="B85">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A86" t="s">
+        <v>43</v>
+      </c>
+      <c r="B86">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A87" t="s">
+        <v>85</v>
+      </c>
+      <c r="B87">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A88" t="s">
+        <v>81</v>
+      </c>
+      <c r="B88">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A89" t="s">
+        <v>159</v>
+      </c>
+      <c r="B89">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A90" t="s">
         <v>108</v>
       </c>
-      <c r="B73">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A74" t="s">
-        <v>144</v>
-      </c>
-      <c r="B74">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A75" t="s">
-        <v>95</v>
-      </c>
-      <c r="B75">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A76" t="s">
-        <v>130</v>
-      </c>
-      <c r="B76">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A77" t="s">
-        <v>133</v>
-      </c>
-      <c r="B77">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A78" t="s">
-        <v>111</v>
-      </c>
-      <c r="B78">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A79" t="s">
-        <v>62</v>
-      </c>
-      <c r="B79">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A80" t="s">
-        <v>63</v>
-      </c>
-      <c r="B80">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A81" t="s">
-        <v>115</v>
-      </c>
-      <c r="B81">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A82" t="s">
-        <v>89</v>
-      </c>
-      <c r="B82">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A83" t="s">
-        <v>121</v>
-      </c>
-      <c r="B83">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A84" t="s">
-        <v>137</v>
-      </c>
-      <c r="B84">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A85" t="s">
-        <v>40</v>
-      </c>
-      <c r="B85">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A86" t="s">
-        <v>42</v>
-      </c>
-      <c r="B86">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A87" t="s">
-        <v>84</v>
-      </c>
-      <c r="B87">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A88" t="s">
-        <v>80</v>
-      </c>
-      <c r="B88">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="89" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A89" t="s">
-        <v>157</v>
-      </c>
-      <c r="B89">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="90" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A90" t="s">
-        <v>106</v>
-      </c>
       <c r="B90">
         <v>0</v>
       </c>
     </row>
-    <row r="91" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B91">
         <v>0</v>
       </c>
     </row>
-    <row r="92" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B92">
         <v>0</v>
       </c>
     </row>
-    <row r="93" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
         <v>29</v>
       </c>
@@ -2007,15 +2042,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="94" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B94">
         <v>1</v>
       </c>
     </row>
-    <row r="95" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
         <v>26</v>
       </c>
@@ -2023,39 +2058,39 @@
         <v>0</v>
       </c>
     </row>
-    <row r="96" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="B96">
         <v>0</v>
       </c>
     </row>
-    <row r="97" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B97">
         <v>1</v>
       </c>
     </row>
-    <row r="98" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B98">
         <v>0</v>
       </c>
     </row>
-    <row r="99" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B99">
         <v>0</v>
       </c>
     </row>
-    <row r="100" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
         <v>14</v>
       </c>
@@ -2063,55 +2098,55 @@
         <v>0</v>
       </c>
     </row>
-    <row r="101" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B101">
         <v>0</v>
       </c>
     </row>
-    <row r="102" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A102" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B102">
         <v>0</v>
       </c>
     </row>
-    <row r="103" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A103" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="B103">
         <v>0</v>
       </c>
     </row>
-    <row r="104" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A104" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="B104">
         <v>0</v>
       </c>
     </row>
-    <row r="105" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A105" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B105">
         <v>0</v>
       </c>
     </row>
-    <row r="106" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A106" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B106">
         <v>1</v>
       </c>
     </row>
-    <row r="107" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A107" t="s">
         <v>27</v>
       </c>
@@ -2119,23 +2154,23 @@
         <v>0</v>
       </c>
     </row>
-    <row r="108" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A108" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="B108">
         <v>0</v>
       </c>
     </row>
-    <row r="109" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A109" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="B109">
         <v>0</v>
       </c>
     </row>
-    <row r="110" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A110" t="s">
         <v>24</v>
       </c>
@@ -2143,47 +2178,47 @@
         <v>0</v>
       </c>
     </row>
-    <row r="111" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A111" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="B111">
         <v>0</v>
       </c>
     </row>
-    <row r="112" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A112" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B112">
         <v>0</v>
       </c>
     </row>
-    <row r="113" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A113" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B113">
         <v>0</v>
       </c>
     </row>
-    <row r="114" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A114" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B114">
         <v>0</v>
       </c>
     </row>
-    <row r="115" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A115" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B115">
         <v>0</v>
       </c>
     </row>
-    <row r="116" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A116" t="s">
         <v>13</v>
       </c>
@@ -2191,31 +2226,31 @@
         <v>0</v>
       </c>
     </row>
-    <row r="117" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A117" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B117">
         <v>0</v>
       </c>
     </row>
-    <row r="118" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A118" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B118">
         <v>0</v>
       </c>
     </row>
-    <row r="119" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A119" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="B119">
         <v>0</v>
       </c>
     </row>
-    <row r="120" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A120" t="s">
         <v>16</v>
       </c>
@@ -2223,15 +2258,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="121" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A121" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="B121">
         <v>0</v>
       </c>
     </row>
-    <row r="122" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A122" t="s">
         <v>33</v>
       </c>
@@ -2239,23 +2274,23 @@
         <v>0</v>
       </c>
     </row>
-    <row r="123" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A123" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B123">
         <v>0</v>
       </c>
     </row>
-    <row r="124" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A124" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B124">
         <v>0</v>
       </c>
     </row>
-    <row r="125" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A125" t="s">
         <v>32</v>
       </c>
@@ -2263,47 +2298,47 @@
         <v>0</v>
       </c>
     </row>
-    <row r="126" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A126" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="B126">
         <v>0</v>
       </c>
     </row>
-    <row r="127" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A127" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="B127">
         <v>0</v>
       </c>
     </row>
-    <row r="128" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A128" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="B128">
         <v>0</v>
       </c>
     </row>
-    <row r="129" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A129" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B129">
         <v>0</v>
       </c>
     </row>
-    <row r="130" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A130" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="B130">
         <v>0</v>
       </c>
     </row>
-    <row r="131" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A131" t="s">
         <v>4</v>
       </c>
@@ -2311,7 +2346,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="132" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A132" t="s">
         <v>2</v>
       </c>
@@ -2319,7 +2354,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="133" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A133" t="s">
         <v>2</v>
       </c>
@@ -2327,7 +2362,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="134" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A134" t="s">
         <v>2</v>
       </c>
@@ -2335,7 +2370,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="135" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A135" t="s">
         <v>2</v>
       </c>
@@ -2343,7 +2378,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="136" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A136" t="s">
         <v>2</v>
       </c>
@@ -2351,7 +2386,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="137" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A137" t="s">
         <v>8</v>
       </c>
@@ -2359,7 +2394,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="138" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A138" t="s">
         <v>8</v>
       </c>
@@ -2367,7 +2402,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="139" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A139" t="s">
         <v>8</v>
       </c>
@@ -2375,7 +2410,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="140" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A140" t="s">
         <v>8</v>
       </c>
@@ -2383,7 +2418,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="141" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A141" t="s">
         <v>8</v>
       </c>
@@ -2391,7 +2426,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="142" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A142" t="s">
         <v>8</v>
       </c>
@@ -2399,7 +2434,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="143" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A143" t="s">
         <v>8</v>
       </c>
@@ -2407,7 +2442,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="144" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A144" t="s">
         <v>8</v>
       </c>
@@ -2415,7 +2450,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="145" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A145" t="s">
         <v>9</v>
       </c>
@@ -2423,7 +2458,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="146" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A146" t="s">
         <v>9</v>
       </c>
@@ -2431,7 +2466,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="147" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A147" t="s">
         <v>9</v>
       </c>
@@ -2439,7 +2474,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="148" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A148" t="s">
         <v>9</v>
       </c>
@@ -2447,7 +2482,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="149" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A149" t="s">
         <v>9</v>
       </c>
@@ -2455,7 +2490,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="150" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A150" t="s">
         <v>9</v>
       </c>
@@ -2463,7 +2498,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="151" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A151" t="s">
         <v>9</v>
       </c>
@@ -2471,7 +2506,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="152" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A152" t="s">
         <v>9</v>
       </c>
@@ -2479,7 +2514,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="153" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A153" t="s">
         <v>9</v>
       </c>
@@ -2487,7 +2522,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="154" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A154" t="s">
         <v>9</v>
       </c>
@@ -2495,7 +2530,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="155" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A155" t="s">
         <v>9</v>
       </c>
@@ -2503,7 +2538,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="156" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A156" t="s">
         <v>9</v>
       </c>
@@ -2511,7 +2546,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="157" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A157" t="s">
         <v>9</v>
       </c>
@@ -2519,7 +2554,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="158" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A158" t="s">
         <v>9</v>
       </c>
@@ -2527,23 +2562,23 @@
         <v>0</v>
       </c>
     </row>
-    <row r="159" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A159" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="B159">
         <v>0</v>
       </c>
     </row>
-    <row r="160" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A160" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B160">
         <v>1</v>
       </c>
     </row>
-    <row r="161" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A161" t="s">
         <v>19</v>
       </c>
@@ -2551,7 +2586,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="162" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A162" t="s">
         <v>28</v>
       </c>
@@ -2559,15 +2594,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="163" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A163" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B163">
         <v>0</v>
       </c>
     </row>
-    <row r="164" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A164" t="s">
         <v>18</v>
       </c>
@@ -2575,7 +2610,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="165" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A165" t="s">
         <v>18</v>
       </c>
@@ -2583,7 +2618,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="166" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A166" t="s">
         <v>18</v>
       </c>
@@ -2591,7 +2626,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="167" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A167" t="s">
         <v>18</v>
       </c>
@@ -2599,7 +2634,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="168" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A168" t="s">
         <v>18</v>
       </c>
@@ -2607,7 +2642,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="169" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A169" t="s">
         <v>18</v>
       </c>
@@ -2615,7 +2650,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="170" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A170" t="s">
         <v>18</v>
       </c>
@@ -2623,7 +2658,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="171" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A171" t="s">
         <v>18</v>
       </c>
@@ -2631,7 +2666,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="172" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A172" t="s">
         <v>18</v>
       </c>
@@ -2639,7 +2674,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="173" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A173" t="s">
         <v>18</v>
       </c>
@@ -2647,7 +2682,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="174" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A174" t="s">
         <v>18</v>
       </c>
@@ -2655,7 +2690,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="175" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A175" t="s">
         <v>18</v>
       </c>
@@ -2663,7 +2698,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="176" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A176" t="s">
         <v>18</v>
       </c>
@@ -2671,7 +2706,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="177" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A177" t="s">
         <v>18</v>
       </c>
@@ -2679,7 +2714,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="178" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A178" t="s">
         <v>18</v>
       </c>
@@ -2687,7 +2722,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="179" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A179" t="s">
         <v>18</v>
       </c>
@@ -2695,7 +2730,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="180" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A180" t="s">
         <v>18</v>
       </c>
@@ -2703,7 +2738,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="181" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A181" t="s">
         <v>18</v>
       </c>
@@ -2711,7 +2746,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="182" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A182" t="s">
         <v>18</v>
       </c>
@@ -2719,7 +2754,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="183" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A183" t="s">
         <v>18</v>
       </c>
@@ -2727,7 +2762,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="184" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A184" t="s">
         <v>18</v>
       </c>
@@ -2735,7 +2770,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="185" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A185" t="s">
         <v>18</v>
       </c>
@@ -2743,7 +2778,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="186" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A186" t="s">
         <v>18</v>
       </c>
@@ -2751,7 +2786,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="187" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A187" t="s">
         <v>18</v>
       </c>
@@ -2759,7 +2794,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="188" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A188" t="s">
         <v>18</v>
       </c>
@@ -2767,7 +2802,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="189" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A189" t="s">
         <v>18</v>
       </c>
@@ -2775,7 +2810,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="190" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A190" t="s">
         <v>11</v>
       </c>
@@ -2783,7 +2818,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="191" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A191" t="s">
         <v>11</v>
       </c>
@@ -2791,7 +2826,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="192" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A192" t="s">
         <v>11</v>
       </c>
@@ -2799,7 +2834,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="193" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A193" t="s">
         <v>11</v>
       </c>
@@ -2807,7 +2842,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="194" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A194" t="s">
         <v>11</v>
       </c>
@@ -2815,7 +2850,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="195" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A195" t="s">
         <v>11</v>
       </c>
@@ -2823,7 +2858,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="196" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A196" t="s">
         <v>11</v>
       </c>
@@ -2831,7 +2866,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="197" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A197" t="s">
         <v>11</v>
       </c>
@@ -2839,7 +2874,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="198" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A198" t="s">
         <v>11</v>
       </c>
@@ -2847,7 +2882,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="199" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A199" t="s">
         <v>11</v>
       </c>
@@ -2855,7 +2890,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="200" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A200" t="s">
         <v>11</v>
       </c>
@@ -2863,7 +2898,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="201" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A201" t="s">
         <v>11</v>
       </c>
@@ -2871,7 +2906,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="202" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A202" t="s">
         <v>11</v>
       </c>
@@ -2879,7 +2914,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="203" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A203" t="s">
         <v>11</v>
       </c>
@@ -2887,7 +2922,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="204" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A204" t="s">
         <v>11</v>
       </c>
@@ -2895,7 +2930,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="205" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A205" t="s">
         <v>11</v>
       </c>
@@ -2903,7 +2938,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="206" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A206" t="s">
         <v>11</v>
       </c>
@@ -2911,7 +2946,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="207" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A207" t="s">
         <v>12</v>
       </c>
@@ -2919,7 +2954,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="208" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A208" t="s">
         <v>12</v>
       </c>
@@ -2927,7 +2962,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="209" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A209" t="s">
         <v>12</v>
       </c>
@@ -2935,7 +2970,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="210" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A210" t="s">
         <v>1</v>
       </c>
@@ -2943,7 +2978,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="211" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A211" t="s">
         <v>1</v>
       </c>
@@ -2951,7 +2986,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="212" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A212" t="s">
         <v>6</v>
       </c>
@@ -2959,7 +2994,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="213" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A213" t="s">
         <v>6</v>
       </c>
@@ -2967,7 +3002,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="214" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A214" t="s">
         <v>6</v>
       </c>
@@ -2975,7 +3010,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="215" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A215" t="s">
         <v>6</v>
       </c>
@@ -2983,7 +3018,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="216" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A216" t="s">
         <v>6</v>
       </c>
@@ -2991,7 +3026,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="217" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A217" t="s">
         <v>6</v>
       </c>
@@ -2999,7 +3034,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="218" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A218" t="s">
         <v>6</v>
       </c>
@@ -3007,7 +3042,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="219" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A219" t="s">
         <v>6</v>
       </c>
@@ -3015,7 +3050,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="220" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A220" t="s">
         <v>6</v>
       </c>
@@ -3023,7 +3058,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="221" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A221" t="s">
         <v>6</v>
       </c>
@@ -3031,7 +3066,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="222" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A222" t="s">
         <v>6</v>
       </c>
@@ -3039,7 +3074,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="223" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A223" t="s">
         <v>6</v>
       </c>
@@ -3047,7 +3082,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="224" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A224" t="s">
         <v>6</v>
       </c>
@@ -3055,7 +3090,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="225" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A225" t="s">
         <v>6</v>
       </c>
@@ -3063,7 +3098,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="226" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A226" t="s">
         <v>6</v>
       </c>
@@ -3071,7 +3106,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="227" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A227" t="s">
         <v>6</v>
       </c>
@@ -3079,7 +3114,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="228" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A228" t="s">
         <v>6</v>
       </c>
@@ -3087,7 +3122,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="229" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A229" t="s">
         <v>6</v>
       </c>
@@ -3095,7 +3130,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="230" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A230" t="s">
         <v>6</v>
       </c>
@@ -3103,7 +3138,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="231" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A231" t="s">
         <v>6</v>
       </c>
@@ -3111,7 +3146,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="232" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A232" t="s">
         <v>6</v>
       </c>
@@ -3119,7 +3154,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="233" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A233" t="s">
         <v>6</v>
       </c>
@@ -3127,7 +3162,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="234" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A234" t="s">
         <v>6</v>
       </c>
@@ -3135,7 +3170,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="235" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A235" t="s">
         <v>6</v>
       </c>
@@ -3143,7 +3178,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="236" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A236" t="s">
         <v>6</v>
       </c>
@@ -3151,7 +3186,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="237" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A237" t="s">
         <v>6</v>
       </c>
@@ -3159,7 +3194,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="238" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A238" t="s">
         <v>6</v>
       </c>
@@ -3167,7 +3202,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="239" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A239" t="s">
         <v>6</v>
       </c>
@@ -3175,7 +3210,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="240" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A240" t="s">
         <v>6</v>
       </c>
@@ -3183,7 +3218,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="241" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A241" t="s">
         <v>6</v>
       </c>
@@ -3191,7 +3226,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="242" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A242" t="s">
         <v>6</v>
       </c>
@@ -3199,7 +3234,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="243" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A243" t="s">
         <v>6</v>
       </c>
@@ -3207,7 +3242,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="244" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A244" t="s">
         <v>6</v>
       </c>
@@ -3215,7 +3250,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="245" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A245" t="s">
         <v>6</v>
       </c>
@@ -3223,7 +3258,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="246" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A246" t="s">
         <v>6</v>
       </c>
@@ -3231,7 +3266,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="247" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A247" t="s">
         <v>6</v>
       </c>
@@ -3239,7 +3274,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="248" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A248" t="s">
         <v>6</v>
       </c>
@@ -3247,7 +3282,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="249" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A249" t="s">
         <v>6</v>
       </c>
@@ -3255,7 +3290,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="250" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A250" t="s">
         <v>6</v>
       </c>
@@ -3263,7 +3298,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="251" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A251" t="s">
         <v>6</v>
       </c>
@@ -3271,7 +3306,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="252" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A252" t="s">
         <v>6</v>
       </c>
@@ -3279,7 +3314,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="253" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A253" t="s">
         <v>6</v>
       </c>
@@ -3287,7 +3322,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="254" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A254" t="s">
         <v>6</v>
       </c>
@@ -3295,7 +3330,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="255" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A255" t="s">
         <v>6</v>
       </c>
@@ -3303,7 +3338,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="256" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A256" t="s">
         <v>6</v>
       </c>
@@ -3311,7 +3346,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="257" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A257" t="s">
         <v>6</v>
       </c>
@@ -3319,7 +3354,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="258" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A258" t="s">
         <v>6</v>
       </c>
@@ -3327,7 +3362,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="259" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A259" t="s">
         <v>6</v>
       </c>
@@ -3335,7 +3370,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="260" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A260" t="s">
         <v>6</v>
       </c>
@@ -3343,7 +3378,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="261" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A261" t="s">
         <v>6</v>
       </c>
@@ -3351,7 +3386,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="262" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A262" t="s">
         <v>6</v>
       </c>
@@ -3359,7 +3394,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="263" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A263" t="s">
         <v>6</v>
       </c>
@@ -3367,7 +3402,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="264" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A264" t="s">
         <v>6</v>
       </c>
@@ -3375,7 +3410,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="265" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A265" t="s">
         <v>6</v>
       </c>
@@ -3383,7 +3418,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="266" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A266" t="s">
         <v>6</v>
       </c>
@@ -3391,7 +3426,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="267" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A267" t="s">
         <v>6</v>
       </c>
@@ -3399,7 +3434,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="268" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A268" t="s">
         <v>6</v>
       </c>
@@ -3407,7 +3442,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="269" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A269" t="s">
         <v>6</v>
       </c>
@@ -3415,7 +3450,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="270" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A270" t="s">
         <v>6</v>
       </c>
@@ -3423,7 +3458,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="271" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A271" t="s">
         <v>6</v>
       </c>
@@ -3431,7 +3466,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="272" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A272" t="s">
         <v>6</v>
       </c>
@@ -3439,7 +3474,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="273" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A273" t="s">
         <v>6</v>
       </c>
@@ -3447,7 +3482,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="274" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A274" t="s">
         <v>6</v>
       </c>
@@ -3455,7 +3490,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="275" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A275" t="s">
         <v>6</v>
       </c>
@@ -3463,7 +3498,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="276" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A276" t="s">
         <v>6</v>
       </c>
@@ -3471,7 +3506,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="277" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A277" t="s">
         <v>6</v>
       </c>
@@ -3479,7 +3514,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="278" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A278" t="s">
         <v>6</v>
       </c>
@@ -3487,7 +3522,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="279" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A279" t="s">
         <v>6</v>
       </c>
@@ -3495,7 +3530,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="280" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A280" t="s">
         <v>6</v>
       </c>
@@ -3503,7 +3538,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="281" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A281" t="s">
         <v>6</v>
       </c>
@@ -3511,7 +3546,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="282" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A282" t="s">
         <v>6</v>
       </c>
@@ -3519,39 +3554,39 @@
         <v>0</v>
       </c>
     </row>
-    <row r="283" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A283" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B283">
         <v>0</v>
       </c>
     </row>
-    <row r="284" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A284" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B284">
         <v>0</v>
       </c>
     </row>
-    <row r="285" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A285" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="B285">
         <v>0</v>
       </c>
     </row>
-    <row r="286" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A286" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B286">
         <v>0</v>
       </c>
     </row>
-    <row r="287" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A287" t="s">
         <v>10</v>
       </c>
@@ -3559,7 +3594,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="288" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A288" t="s">
         <v>10</v>
       </c>
@@ -3567,7 +3602,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="289" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A289" t="s">
         <v>10</v>
       </c>
@@ -3575,15 +3610,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="290" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A290" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="B290">
         <v>0</v>
       </c>
     </row>
-    <row r="291" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A291" t="s">
         <v>17</v>
       </c>
@@ -3591,23 +3626,23 @@
         <v>0</v>
       </c>
     </row>
-    <row r="292" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A292" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B292">
         <v>0</v>
       </c>
     </row>
-    <row r="293" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A293" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B293">
         <v>0</v>
       </c>
     </row>
-    <row r="294" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A294" t="s">
         <v>31</v>
       </c>
@@ -3615,55 +3650,55 @@
         <v>1</v>
       </c>
     </row>
-    <row r="295" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A295" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B295">
         <v>0</v>
       </c>
     </row>
-    <row r="296" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A296" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="B296">
         <v>0</v>
       </c>
     </row>
-    <row r="297" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A297" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B297">
         <v>1</v>
       </c>
     </row>
-    <row r="298" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A298" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B298">
         <v>1</v>
       </c>
     </row>
-    <row r="299" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A299" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="B299">
         <v>0</v>
       </c>
     </row>
-    <row r="300" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A300" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B300">
         <v>0</v>
       </c>
     </row>
-    <row r="301" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A301" t="s">
         <v>15</v>
       </c>
@@ -3671,7 +3706,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="302" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A302" s="2"/>
     </row>
   </sheetData>
@@ -3684,643 +3719,643 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:B201"/>
   <sheetViews>
-    <sheetView topLeftCell="A5" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" topLeftCell="A174" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A202" sqref="A202"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="194.28515625" customWidth="1"/>
+    <col min="1" max="1" width="194.21875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="B1" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="B2">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="B3">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="B4">
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="B5">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="B6">
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="B7">
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="B8">
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="B9">
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="B10">
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="B11">
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="B12">
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="B13">
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="B14">
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="B15">
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="B16">
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="B17">
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="B18">
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="B19">
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="B20">
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="B21">
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="B22">
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="B23">
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="B24">
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="B25">
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="B26">
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="B27">
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="B28">
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
+        <v>195</v>
+      </c>
+      <c r="B29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
+        <v>197</v>
+      </c>
+      <c r="B30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
+        <v>231</v>
+      </c>
+      <c r="B31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A32" t="s">
+        <v>211</v>
+      </c>
+      <c r="B32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A33" t="s">
+        <v>230</v>
+      </c>
+      <c r="B33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A34" t="s">
+        <v>187</v>
+      </c>
+      <c r="B34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A35" t="s">
+        <v>204</v>
+      </c>
+      <c r="B35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A36" t="s">
+        <v>224</v>
+      </c>
+      <c r="B36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A37" t="s">
+        <v>186</v>
+      </c>
+      <c r="B37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A38" t="s">
+        <v>207</v>
+      </c>
+      <c r="B38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A39" t="s">
+        <v>239</v>
+      </c>
+      <c r="B39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A40" t="s">
+        <v>244</v>
+      </c>
+      <c r="B40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A41" t="s">
+        <v>216</v>
+      </c>
+      <c r="B41">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A42" t="s">
+        <v>194</v>
+      </c>
+      <c r="B42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A43" t="s">
         <v>193</v>
       </c>
-      <c r="B29">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
-        <v>195</v>
-      </c>
-      <c r="B30">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A31" t="s">
-        <v>229</v>
-      </c>
-      <c r="B31">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A32" t="s">
+      <c r="B43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A44" t="s">
+        <v>179</v>
+      </c>
+      <c r="B44">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A45" t="s">
+        <v>182</v>
+      </c>
+      <c r="B45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A46" t="s">
+        <v>221</v>
+      </c>
+      <c r="B46">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A47" t="s">
         <v>209</v>
       </c>
-      <c r="B32">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A33" t="s">
-        <v>228</v>
-      </c>
-      <c r="B33">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A34" t="s">
-        <v>185</v>
-      </c>
-      <c r="B34">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A35" t="s">
-        <v>202</v>
-      </c>
-      <c r="B35">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A36" t="s">
-        <v>222</v>
-      </c>
-      <c r="B36">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A37" t="s">
-        <v>184</v>
-      </c>
-      <c r="B37">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A38" t="s">
+      <c r="B47">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A48" t="s">
+        <v>254</v>
+      </c>
+      <c r="B48">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A49" t="s">
+        <v>165</v>
+      </c>
+      <c r="B49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A50" t="s">
+        <v>246</v>
+      </c>
+      <c r="B50">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A51" t="s">
+        <v>235</v>
+      </c>
+      <c r="B51">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A52" t="s">
+        <v>219</v>
+      </c>
+      <c r="B52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A53" t="s">
         <v>205</v>
       </c>
-      <c r="B38">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A39" t="s">
-        <v>237</v>
-      </c>
-      <c r="B39">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A40" t="s">
-        <v>242</v>
-      </c>
-      <c r="B40">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A41" t="s">
-        <v>214</v>
-      </c>
-      <c r="B41">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A42" t="s">
-        <v>192</v>
-      </c>
-      <c r="B42">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A43" t="s">
-        <v>191</v>
-      </c>
-      <c r="B43">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A44" t="s">
-        <v>177</v>
-      </c>
-      <c r="B44">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A45" t="s">
-        <v>180</v>
-      </c>
-      <c r="B45">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A46" t="s">
-        <v>219</v>
-      </c>
-      <c r="B46">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A47" t="s">
-        <v>207</v>
-      </c>
-      <c r="B47">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A48" t="s">
-        <v>252</v>
-      </c>
-      <c r="B48">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A49" t="s">
+      <c r="B53">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A54" t="s">
+        <v>234</v>
+      </c>
+      <c r="B54">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A55" t="s">
         <v>163</v>
-      </c>
-      <c r="B49">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A50" t="s">
-        <v>244</v>
-      </c>
-      <c r="B50">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A51" t="s">
-        <v>233</v>
-      </c>
-      <c r="B51">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A52" t="s">
-        <v>217</v>
-      </c>
-      <c r="B52">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A53" t="s">
-        <v>203</v>
-      </c>
-      <c r="B53">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A54" t="s">
-        <v>232</v>
-      </c>
-      <c r="B54">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A55" t="s">
-        <v>161</v>
       </c>
       <c r="B55">
         <v>1</v>
       </c>
     </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="B56">
         <v>1</v>
       </c>
     </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="B57">
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="B58">
         <v>1</v>
       </c>
     </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="B59">
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="B60">
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="B61">
         <v>1</v>
       </c>
     </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
+        <v>191</v>
+      </c>
+      <c r="B62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A63" t="s">
+        <v>240</v>
+      </c>
+      <c r="B63">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A64" t="s">
+        <v>247</v>
+      </c>
+      <c r="B64">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A65" t="s">
+        <v>225</v>
+      </c>
+      <c r="B65">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A66" t="s">
+        <v>170</v>
+      </c>
+      <c r="B66">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A67" t="s">
+        <v>200</v>
+      </c>
+      <c r="B67">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A68" t="s">
+        <v>250</v>
+      </c>
+      <c r="B68">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A69" t="s">
+        <v>222</v>
+      </c>
+      <c r="B69">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A70" t="s">
+        <v>233</v>
+      </c>
+      <c r="B70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A71" t="s">
+        <v>169</v>
+      </c>
+      <c r="B71">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A72" t="s">
+        <v>199</v>
+      </c>
+      <c r="B72">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A73" t="s">
+        <v>229</v>
+      </c>
+      <c r="B73">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A74" t="s">
         <v>189</v>
       </c>
-      <c r="B62">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A63" t="s">
-        <v>238</v>
-      </c>
-      <c r="B63">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A64" t="s">
-        <v>245</v>
-      </c>
-      <c r="B64">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A65" t="s">
+      <c r="B74">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A75" t="s">
+        <v>210</v>
+      </c>
+      <c r="B75">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A76" t="s">
+        <v>249</v>
+      </c>
+      <c r="B76">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A77" t="s">
         <v>223</v>
       </c>
-      <c r="B65">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A66" t="s">
-        <v>168</v>
-      </c>
-      <c r="B66">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A67" t="s">
-        <v>198</v>
-      </c>
-      <c r="B67">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A68" t="s">
-        <v>248</v>
-      </c>
-      <c r="B68">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A69" t="s">
-        <v>220</v>
-      </c>
-      <c r="B69">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A70" t="s">
-        <v>231</v>
-      </c>
-      <c r="B70">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A71" t="s">
-        <v>167</v>
-      </c>
-      <c r="B71">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A72" t="s">
-        <v>197</v>
-      </c>
-      <c r="B72">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A73" t="s">
-        <v>227</v>
-      </c>
-      <c r="B73">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A74" t="s">
-        <v>187</v>
-      </c>
-      <c r="B74">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A75" t="s">
-        <v>208</v>
-      </c>
-      <c r="B75">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A76" t="s">
-        <v>247</v>
-      </c>
-      <c r="B76">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A77" t="s">
-        <v>221</v>
-      </c>
       <c r="B77">
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="B78">
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
         <v>2</v>
       </c>
@@ -4328,7 +4363,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
         <v>2</v>
       </c>
@@ -4336,7 +4371,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
         <v>2</v>
       </c>
@@ -4344,7 +4379,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
         <v>2</v>
       </c>
@@ -4352,7 +4387,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
         <v>2</v>
       </c>
@@ -4360,7 +4395,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
         <v>2</v>
       </c>
@@ -4368,7 +4403,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
         <v>2</v>
       </c>
@@ -4376,15 +4411,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="B86">
         <v>0</v>
       </c>
     </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
         <v>8</v>
       </c>
@@ -4392,7 +4427,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
         <v>8</v>
       </c>
@@ -4400,7 +4435,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="89" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
         <v>8</v>
       </c>
@@ -4408,7 +4443,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="90" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
         <v>8</v>
       </c>
@@ -4416,7 +4451,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="91" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
         <v>8</v>
       </c>
@@ -4424,7 +4459,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="92" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
         <v>8</v>
       </c>
@@ -4432,7 +4467,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="93" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
         <v>9</v>
       </c>
@@ -4440,7 +4475,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="94" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
         <v>9</v>
       </c>
@@ -4448,7 +4483,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="95" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
         <v>9</v>
       </c>
@@ -4456,7 +4491,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="96" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
         <v>9</v>
       </c>
@@ -4464,7 +4499,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="97" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
         <v>9</v>
       </c>
@@ -4472,7 +4507,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="98" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
         <v>9</v>
       </c>
@@ -4480,7 +4515,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="99" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
         <v>9</v>
       </c>
@@ -4488,7 +4523,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="100" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
         <v>9</v>
       </c>
@@ -4496,7 +4531,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="101" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
         <v>9</v>
       </c>
@@ -4504,7 +4539,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="102" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A102" t="s">
         <v>9</v>
       </c>
@@ -4512,7 +4547,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="103" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A103" t="s">
         <v>9</v>
       </c>
@@ -4520,7 +4555,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="104" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A104" t="s">
         <v>9</v>
       </c>
@@ -4528,7 +4563,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="105" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A105" t="s">
         <v>9</v>
       </c>
@@ -4536,7 +4571,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="106" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A106" t="s">
         <v>9</v>
       </c>
@@ -4544,7 +4579,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="107" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A107" t="s">
         <v>9</v>
       </c>
@@ -4552,7 +4587,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="108" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A108" t="s">
         <v>19</v>
       </c>
@@ -4560,7 +4595,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="109" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A109" t="s">
         <v>19</v>
       </c>
@@ -4568,15 +4603,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="110" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A110" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="B110">
         <v>0</v>
       </c>
     </row>
-    <row r="111" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A111" t="s">
         <v>18</v>
       </c>
@@ -4584,7 +4619,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="112" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A112" t="s">
         <v>18</v>
       </c>
@@ -4592,7 +4627,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="113" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A113" t="s">
         <v>18</v>
       </c>
@@ -4600,7 +4635,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="114" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A114" t="s">
         <v>18</v>
       </c>
@@ -4608,7 +4643,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="115" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A115" t="s">
         <v>18</v>
       </c>
@@ -4616,7 +4651,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="116" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A116" t="s">
         <v>18</v>
       </c>
@@ -4624,7 +4659,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="117" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A117" t="s">
         <v>18</v>
       </c>
@@ -4632,7 +4667,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="118" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A118" t="s">
         <v>18</v>
       </c>
@@ -4640,7 +4675,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="119" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A119" t="s">
         <v>18</v>
       </c>
@@ -4648,7 +4683,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="120" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A120" t="s">
         <v>18</v>
       </c>
@@ -4656,7 +4691,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="121" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A121" t="s">
         <v>18</v>
       </c>
@@ -4664,7 +4699,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="122" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A122" t="s">
         <v>18</v>
       </c>
@@ -4672,7 +4707,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="123" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A123" t="s">
         <v>18</v>
       </c>
@@ -4680,7 +4715,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="124" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A124" t="s">
         <v>11</v>
       </c>
@@ -4688,7 +4723,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="125" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A125" t="s">
         <v>11</v>
       </c>
@@ -4696,7 +4731,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="126" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A126" t="s">
         <v>11</v>
       </c>
@@ -4704,7 +4739,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="127" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A127" t="s">
         <v>11</v>
       </c>
@@ -4712,7 +4747,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="128" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A128" t="s">
         <v>11</v>
       </c>
@@ -4720,7 +4755,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="129" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A129" t="s">
         <v>11</v>
       </c>
@@ -4728,7 +4763,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="130" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A130" t="s">
         <v>11</v>
       </c>
@@ -4736,7 +4771,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="131" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A131" t="s">
         <v>11</v>
       </c>
@@ -4744,15 +4779,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="132" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A132" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="B132">
         <v>0</v>
       </c>
     </row>
-    <row r="133" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A133" t="s">
         <v>12</v>
       </c>
@@ -4760,7 +4795,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="134" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A134" t="s">
         <v>12</v>
       </c>
@@ -4768,23 +4803,23 @@
         <v>0</v>
       </c>
     </row>
-    <row r="135" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A135" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="B135">
         <v>0</v>
       </c>
     </row>
-    <row r="136" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A136" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="B136">
         <v>0</v>
       </c>
     </row>
-    <row r="137" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A137" t="s">
         <v>1</v>
       </c>
@@ -4792,7 +4827,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="138" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A138" t="s">
         <v>1</v>
       </c>
@@ -4800,7 +4835,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="139" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A139" t="s">
         <v>6</v>
       </c>
@@ -4808,7 +4843,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="140" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A140" t="s">
         <v>6</v>
       </c>
@@ -4816,7 +4851,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="141" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A141" t="s">
         <v>6</v>
       </c>
@@ -4824,7 +4859,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="142" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A142" t="s">
         <v>6</v>
       </c>
@@ -4832,7 +4867,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="143" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A143" t="s">
         <v>6</v>
       </c>
@@ -4840,7 +4875,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="144" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A144" t="s">
         <v>6</v>
       </c>
@@ -4848,7 +4883,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="145" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A145" t="s">
         <v>6</v>
       </c>
@@ -4856,7 +4891,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="146" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A146" t="s">
         <v>6</v>
       </c>
@@ -4864,7 +4899,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="147" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A147" t="s">
         <v>6</v>
       </c>
@@ -4872,7 +4907,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="148" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A148" t="s">
         <v>6</v>
       </c>
@@ -4880,7 +4915,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="149" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A149" t="s">
         <v>6</v>
       </c>
@@ -4888,7 +4923,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="150" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A150" t="s">
         <v>6</v>
       </c>
@@ -4896,7 +4931,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="151" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A151" t="s">
         <v>6</v>
       </c>
@@ -4904,7 +4939,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="152" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A152" t="s">
         <v>6</v>
       </c>
@@ -4912,7 +4947,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="153" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A153" t="s">
         <v>6</v>
       </c>
@@ -4920,7 +4955,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="154" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A154" t="s">
         <v>6</v>
       </c>
@@ -4928,7 +4963,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="155" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A155" t="s">
         <v>6</v>
       </c>
@@ -4936,7 +4971,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="156" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A156" t="s">
         <v>6</v>
       </c>
@@ -4944,7 +4979,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="157" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A157" t="s">
         <v>6</v>
       </c>
@@ -4952,7 +4987,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="158" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A158" t="s">
         <v>6</v>
       </c>
@@ -4960,7 +4995,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="159" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A159" t="s">
         <v>6</v>
       </c>
@@ -4968,7 +5003,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="160" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A160" t="s">
         <v>6</v>
       </c>
@@ -4976,7 +5011,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="161" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A161" t="s">
         <v>6</v>
       </c>
@@ -4984,7 +5019,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="162" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A162" t="s">
         <v>6</v>
       </c>
@@ -4992,7 +5027,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="163" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A163" t="s">
         <v>6</v>
       </c>
@@ -5000,7 +5035,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="164" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A164" t="s">
         <v>6</v>
       </c>
@@ -5008,7 +5043,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="165" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A165" t="s">
         <v>6</v>
       </c>
@@ -5016,7 +5051,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="166" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A166" t="s">
         <v>6</v>
       </c>
@@ -5024,7 +5059,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="167" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A167" t="s">
         <v>6</v>
       </c>
@@ -5032,7 +5067,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="168" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A168" t="s">
         <v>6</v>
       </c>
@@ -5040,7 +5075,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="169" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A169" t="s">
         <v>6</v>
       </c>
@@ -5048,7 +5083,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="170" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A170" t="s">
         <v>6</v>
       </c>
@@ -5056,7 +5091,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="171" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A171" t="s">
         <v>6</v>
       </c>
@@ -5064,7 +5099,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="172" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A172" t="s">
         <v>6</v>
       </c>
@@ -5072,7 +5107,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="173" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A173" t="s">
         <v>6</v>
       </c>
@@ -5080,7 +5115,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="174" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A174" t="s">
         <v>6</v>
       </c>
@@ -5088,7 +5123,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="175" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A175" t="s">
         <v>6</v>
       </c>
@@ -5096,7 +5131,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="176" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A176" t="s">
         <v>6</v>
       </c>
@@ -5104,7 +5139,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="177" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A177" t="s">
         <v>6</v>
       </c>
@@ -5112,7 +5147,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="178" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A178" t="s">
         <v>6</v>
       </c>
@@ -5120,7 +5155,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="179" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A179" t="s">
         <v>6</v>
       </c>
@@ -5128,7 +5163,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="180" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A180" t="s">
         <v>6</v>
       </c>
@@ -5136,7 +5171,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="181" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A181" t="s">
         <v>6</v>
       </c>
@@ -5144,7 +5179,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="182" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A182" t="s">
         <v>6</v>
       </c>
@@ -5152,7 +5187,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="183" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A183" t="s">
         <v>6</v>
       </c>
@@ -5160,7 +5195,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="184" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A184" t="s">
         <v>6</v>
       </c>
@@ -5168,7 +5203,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="185" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A185" t="s">
         <v>6</v>
       </c>
@@ -5176,7 +5211,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="186" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A186" t="s">
         <v>6</v>
       </c>
@@ -5184,7 +5219,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="187" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A187" t="s">
         <v>6</v>
       </c>
@@ -5192,15 +5227,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="188" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A188" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="B188">
         <v>0</v>
       </c>
     </row>
-    <row r="189" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A189" t="s">
         <v>10</v>
       </c>
@@ -5208,97 +5243,97 @@
         <v>0</v>
       </c>
     </row>
-    <row r="190" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A190" t="s">
+        <v>180</v>
+      </c>
+      <c r="B190">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="191" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A191" t="s">
+        <v>177</v>
+      </c>
+      <c r="B191">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="192" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A192" t="s">
+        <v>164</v>
+      </c>
+      <c r="B192">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="193" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A193" t="s">
+        <v>192</v>
+      </c>
+      <c r="B193">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="194" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A194" t="s">
+        <v>172</v>
+      </c>
+      <c r="B194">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="195" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A195" t="s">
+        <v>217</v>
+      </c>
+      <c r="B195">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="196" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A196" t="s">
+        <v>241</v>
+      </c>
+      <c r="B196">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="197" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A197" t="s">
+        <v>161</v>
+      </c>
+      <c r="B197">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="198" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A198" t="s">
+        <v>166</v>
+      </c>
+      <c r="B198">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="199" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A199" t="s">
+        <v>220</v>
+      </c>
+      <c r="B199">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="200" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A200" t="s">
         <v>178</v>
       </c>
-      <c r="B190">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="191" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A191" t="s">
-        <v>175</v>
-      </c>
-      <c r="B191">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="192" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A192" t="s">
-        <v>162</v>
-      </c>
-      <c r="B192">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="193" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A193" t="s">
+      <c r="B200">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="201" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A201" t="s">
         <v>190</v>
-      </c>
-      <c r="B193">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="194" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A194" t="s">
-        <v>170</v>
-      </c>
-      <c r="B194">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="195" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A195" t="s">
-        <v>215</v>
-      </c>
-      <c r="B195">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="196" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A196" t="s">
-        <v>239</v>
-      </c>
-      <c r="B196">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="197" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A197" t="s">
-        <v>159</v>
-      </c>
-      <c r="B197">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="198" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A198" t="s">
-        <v>164</v>
-      </c>
-      <c r="B198">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="199" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A199" t="s">
-        <v>218</v>
-      </c>
-      <c r="B199">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="200" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A200" t="s">
-        <v>176</v>
-      </c>
-      <c r="B200">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="201" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A201" t="s">
-        <v>188</v>
       </c>
       <c r="B201">
         <v>0</v>
